--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$125</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="300">
   <si>
     <t>GEC Northfield</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Sears shield, Papa's knife</t>
-  </si>
-  <si>
     <t>Endura</t>
   </si>
   <si>
@@ -892,6 +889,36 @@
   </si>
   <si>
     <t>Minichamp</t>
+  </si>
+  <si>
+    <t>Sears shield, George Dillard's knife</t>
+  </si>
+  <si>
+    <t>Bark River</t>
+  </si>
+  <si>
+    <t>Curly Maple</t>
+  </si>
+  <si>
+    <t>CPM-3V</t>
+  </si>
+  <si>
+    <t>Gunny Sidekick</t>
+  </si>
+  <si>
+    <t>David John</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Mammoth Tooth</t>
+  </si>
+  <si>
+    <t>154-CM</t>
+  </si>
+  <si>
+    <t>Custom, OAL 8.125, Blade 3.875, 8.6 oz</t>
   </si>
 </sst>
 </file>
@@ -1343,11 +1370,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1362,24 +1387,23 @@
     <col min="10" max="10" width="28.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.85546875" style="7" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="16" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="16" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="4" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="16" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="8">
-        <v>43798</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1408,35 +1432,35 @@
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>283</v>
-      </c>
       <c r="Q3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1444,31 +1468,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="10">
-        <v>710</v>
-      </c>
-      <c r="D4" s="11">
-        <v>710</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="J4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="9" t="s">
         <v>187</v>
       </c>
@@ -1476,92 +1498,96 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q35" si="0">IF($L4="Mod",1,0)</f>
-        <v>1</v>
+        <f>IF($L4="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R35" si="1">IF($L4="Trad",1,0)</f>
+        <f>IF($L4="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S35" si="2">IF($L4="Fixed",1,0)</f>
-        <v>0</v>
+        <f>IF($L4="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T35" si="3">IF($L4="Multi",1,0)</f>
+        <f>IF($L4="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9">
-        <f t="shared" ref="A5:A36" si="4">A4+1</f>
+        <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="11"/>
+      <c r="C5" s="10">
+        <v>710</v>
+      </c>
+      <c r="D5" s="11">
+        <v>710</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L5="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L5="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L5="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L5="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="9">
-        <f t="shared" si="4"/>
+        <f>A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1570,48 +1596,48 @@
       <c r="J6" s="10"/>
       <c r="K6" s="2"/>
       <c r="L6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L6="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L6="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L6="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L6="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9">
-        <f t="shared" si="4"/>
+        <f>A6+1</f>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1620,197 +1646,195 @@
       <c r="J7" s="10"/>
       <c r="K7" s="2"/>
       <c r="L7" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF($L7="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L7="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF($L7="Fixed",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L7="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9">
-        <f t="shared" si="4"/>
+        <f>A7+1</f>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="10">
-        <v>110</v>
-      </c>
-      <c r="D8" s="11">
-        <v>110</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="17">
-        <v>27.99</v>
-      </c>
+      <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L8="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L8="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF($L8="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L8="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9">
-        <f t="shared" si="4"/>
+        <f>A8+1</f>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="C9" s="10">
+        <v>110</v>
+      </c>
+      <c r="D9" s="11">
+        <v>110</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2015</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="17">
-        <v>109.95</v>
+        <v>27.99</v>
       </c>
       <c r="O9" s="17"/>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L9="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L9="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L9="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L9="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9">
-        <f t="shared" si="4"/>
+        <f>A9+1</f>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="9">
+        <v>2015</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="L10" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="17">
+        <v>109.95</v>
+      </c>
       <c r="O10" s="17"/>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L10="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L10="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L10="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L10="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="9">
-        <f t="shared" si="4"/>
+        <f>A10+1</f>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1820,16 +1844,16 @@
         <v>42</v>
       </c>
       <c r="D11" s="11">
-        <v>6220</v>
+        <v>3220</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9">
         <v>2</v>
@@ -1838,31 +1862,31 @@
       <c r="J11" s="10"/>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L11="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L11="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L11="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L11="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="9">
-        <f t="shared" si="4"/>
+        <f>A11+1</f>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1871,14 +1895,14 @@
       <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
+      <c r="D12" s="11">
+        <v>6220</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>19</v>
@@ -1890,44 +1914,44 @@
       <c r="J12" s="10"/>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L12="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L12="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L12="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L12="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="9">
-        <f t="shared" si="4"/>
+        <f>A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2137</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>40</v>
@@ -1936,37 +1960,37 @@
         <v>19</v>
       </c>
       <c r="H13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L13="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L13="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L13="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L13="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="9">
-        <f t="shared" si="4"/>
+        <f>A13+1</f>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1976,16 +2000,16 @@
         <v>39</v>
       </c>
       <c r="D14" s="11">
-        <v>3137</v>
+        <v>2137</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -1994,99 +2018,99 @@
       <c r="J14" s="10"/>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L14="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L14="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L14="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L14="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9">
-        <f t="shared" si="4"/>
+        <f>A14+1</f>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11">
-        <v>6375</v>
+        <v>3137</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H15" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L15="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L15="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L15="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L15="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="9">
-        <f t="shared" si="4"/>
+        <f>A15+1</f>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11">
-        <v>63032</v>
+        <v>6375</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>19</v>
@@ -2098,31 +2122,31 @@
       <c r="J16" s="10"/>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L16="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L16="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L16="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L16="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="9">
-        <f t="shared" si="4"/>
+        <f>A16+1</f>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2131,176 +2155,174 @@
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>27</v>
+      <c r="D17" s="11">
+        <v>63032</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H17" s="9">
         <v>3</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L17="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L17="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L17="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L17="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="9">
-        <f t="shared" si="4"/>
+        <f>A17+1</f>
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="Q18" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L18="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L18="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L18="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L18="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9">
-        <f t="shared" si="4"/>
+        <f>A18+1</f>
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="Q19" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L19="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L19="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L19="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L19="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="9">
-        <f t="shared" si="4"/>
+        <f>A19+1</f>
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="11">
-        <v>610096</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>19</v>
@@ -2310,443 +2332,447 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="Q20" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L20="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L20="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L20="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L20="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="9">
-        <f t="shared" si="4"/>
+        <f>A20+1</f>
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="11">
+        <v>610096</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="Q21" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L21="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L21="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L21="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L21="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="9">
-        <f t="shared" si="4"/>
+        <f>A21+1</f>
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1725</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="H22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="K22" s="2" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="17">
-        <v>127.95</v>
-      </c>
+      <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="Q22" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L22="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L22="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L22="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L22="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="9">
-        <f t="shared" si="4"/>
+        <f>A22+1</f>
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>267</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1725</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
       </c>
-      <c r="I23" s="9">
-        <v>2017</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="2"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="L23" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="17">
-        <v>315</v>
+        <v>127.95</v>
       </c>
       <c r="O23" s="17"/>
       <c r="Q23" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF($L23="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($L23="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L23="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L23="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9">
-        <f t="shared" si="4"/>
+        <f>A23+1</f>
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
       </c>
       <c r="I24" s="9">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>251</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="17">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="O24" s="17"/>
       <c r="Q24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF($L24="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L24="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L24="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L24="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9">
-        <f t="shared" si="4"/>
+        <f>A24+1</f>
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="11">
-        <v>21</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
       </c>
       <c r="I25" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="17">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="O25" s="17"/>
       <c r="Q25" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF($L25="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($L25="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L25="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L25="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9">
-        <f t="shared" si="4"/>
+        <f>A25+1</f>
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="11">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9">
-        <v>2018</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="L26" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="17">
-        <v>425</v>
-      </c>
-      <c r="O26" s="17">
-        <v>400</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="O26" s="17"/>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L26="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L26="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L26="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L26="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="9">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="H27" s="9">
-        <v>2</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2018</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="K27" s="2" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="N27" s="17">
+        <v>425</v>
+      </c>
+      <c r="O27" s="17">
+        <v>400</v>
+      </c>
       <c r="Q27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF($L27="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L27="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L27="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L27="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="9">
-        <f t="shared" si="4"/>
+        <f>A27+1</f>
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="9">
@@ -2754,53 +2780,53 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="L28" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="Q28" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L28="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L28="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L28="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L28="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="9">
-        <f t="shared" si="4"/>
+        <f>A28+1</f>
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>130</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
@@ -2809,95 +2835,99 @@
         <v>188</v>
       </c>
       <c r="M29" s="15"/>
-      <c r="N29" s="17">
-        <v>122.83</v>
-      </c>
+      <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="Q29" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L29="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($L29="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF($L29="Fixed",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L29="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="9">
-        <f t="shared" si="4"/>
+        <f>A29+1</f>
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10">
-        <v>1095</v>
+        <v>297</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="2"/>
+      <c r="J30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L30" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="Q30" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L30="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L30="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L30="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L30="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="9">
-        <f t="shared" si="4"/>
+        <f>A30+1</f>
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="11">
-        <v>6</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10">
-        <v>1095</v>
+        <v>78</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
@@ -2906,42 +2936,44 @@
       <c r="J31" s="10"/>
       <c r="K31" s="2"/>
       <c r="L31" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M31" s="15"/>
-      <c r="N31" s="17"/>
+      <c r="N31" s="17">
+        <v>122.83</v>
+      </c>
       <c r="O31" s="17"/>
       <c r="Q31" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L31="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L31="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L31="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L31="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="9">
-        <f t="shared" si="4"/>
+        <f>A31+1</f>
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="10">
@@ -2954,48 +2986,48 @@
       <c r="J32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="Q32" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L32="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L32="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L32="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L32="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="9">
-        <f t="shared" si="4"/>
+        <f>A32+1</f>
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="D33" s="11">
+        <v>6</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>230</v>
+        <v>127</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10">
+        <v>1095</v>
       </c>
       <c r="H33" s="9">
         <v>1</v>
@@ -3004,50 +3036,46 @@
       <c r="J33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M33" s="15"/>
-      <c r="N33" s="17">
-        <v>144</v>
-      </c>
+      <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="Q33" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L33="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L33="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF($L33="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L33="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="9">
-        <f t="shared" si="4"/>
+        <f>A33+1</f>
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>230</v>
+        <v>127</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10">
+        <v>1095</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
@@ -3056,50 +3084,48 @@
       <c r="J34" s="10"/>
       <c r="K34" s="2"/>
       <c r="L34" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M34" s="15"/>
-      <c r="N34" s="17">
-        <v>91.95</v>
-      </c>
+      <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="Q34" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L34="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L34="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF($L34="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L34="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="9">
-        <f t="shared" si="4"/>
+        <f>A34+1</f>
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -3108,218 +3134,210 @@
       <c r="J35" s="10"/>
       <c r="K35" s="2"/>
       <c r="L35" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M35" s="15"/>
       <c r="N35" s="17">
-        <v>134.94999999999999</v>
+        <v>144</v>
       </c>
       <c r="O35" s="17"/>
       <c r="Q35" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L35="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L35="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L35="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L35="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="9">
-        <f t="shared" si="4"/>
+        <f>A35+1</f>
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="11">
-        <v>772115</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1095</v>
+        <v>206</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="10" t="s">
-        <v>215</v>
-      </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="2"/>
       <c r="L36" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="17">
-        <v>92.25</v>
+        <v>91.95</v>
       </c>
       <c r="O36" s="17"/>
       <c r="Q36" s="2">
-        <f t="shared" ref="Q36:Q67" si="5">IF($L36="Mod",1,0)</f>
+        <f>IF($L36="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" ref="R36:R67" si="6">IF($L36="Trad",1,0)</f>
+        <f>IF($L36="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" ref="S36:S67" si="7">IF($L36="Fixed",1,0)</f>
+        <f>IF($L36="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" ref="T36:T67" si="8">IF($L36="Multi",1,0)</f>
+        <f>IF($L36="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="9">
-        <f t="shared" ref="A37:A68" si="9">A36+1</f>
+        <f>A36+1</f>
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="11">
-        <v>541214</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1095</v>
+        <v>206</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H37" s="9">
-        <v>2</v>
-      </c>
-      <c r="I37" s="9">
-        <v>2014</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>226</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="2"/>
       <c r="L37" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="17">
-        <v>110.57</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="O37" s="17"/>
       <c r="Q37" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L37="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L37="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L37="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L37="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9">
-        <f t="shared" si="9"/>
+        <f>A37+1</f>
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" s="11">
-        <v>661214</v>
+        <v>772115</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="G38" s="10">
         <v>1095</v>
       </c>
       <c r="H38" s="9">
-        <v>2</v>
-      </c>
-      <c r="I38" s="9">
-        <v>2014</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="17">
-        <v>199.95</v>
+        <v>92.25</v>
       </c>
       <c r="O38" s="17"/>
       <c r="Q38" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L38="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L38="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L38="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L38="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="9">
-        <f t="shared" si="9"/>
+        <f>A38+1</f>
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="D39" s="11">
-        <v>725213</v>
+        <v>541214</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G39" s="10">
         <v>1095</v>
       </c>
@@ -3330,164 +3348,162 @@
         <v>2014</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="17">
-        <v>128.15</v>
+        <v>110.57</v>
       </c>
       <c r="O39" s="17"/>
       <c r="Q39" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L39="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L39="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L39="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L39="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="9">
-        <f t="shared" si="9"/>
+        <f>A39+1</f>
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11">
-        <v>488214</v>
+        <v>661214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="10">
         <v>1095</v>
       </c>
       <c r="H40" s="9">
         <v>2</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9">
+        <v>2014</v>
+      </c>
       <c r="J40" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="17">
-        <v>89.75</v>
+        <v>199.95</v>
       </c>
       <c r="O40" s="17"/>
       <c r="Q40" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L40="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L40="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L40="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L40="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="9">
-        <f t="shared" si="9"/>
+        <f>A40+1</f>
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="D41" s="11">
-        <v>771115</v>
+        <v>725213</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="10">
         <v>1095</v>
       </c>
       <c r="H41" s="9">
-        <v>1</v>
-      </c>
-      <c r="I41" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="9">
+        <v>2014</v>
+      </c>
       <c r="J41" s="10" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="17">
-        <v>83.55</v>
+        <v>128.15</v>
       </c>
       <c r="O41" s="17"/>
       <c r="Q41" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L41="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L41="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L41="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L41="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="9">
-        <f t="shared" si="9"/>
+        <f>A41+1</f>
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D42" s="11">
-        <v>771214</v>
+        <v>488214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>40</v>
@@ -3500,172 +3516,168 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="17">
-        <v>94.95</v>
+        <v>89.75</v>
       </c>
       <c r="O42" s="17"/>
       <c r="Q42" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L42="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L42="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L42="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L42="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9">
-        <f t="shared" si="9"/>
+        <f>A42+1</f>
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="11">
+        <v>771115</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="11">
-        <v>470114</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G43" s="10">
         <v>1095</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
       </c>
-      <c r="I43" s="9">
-        <v>2014</v>
-      </c>
+      <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>285</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="17">
-        <v>126.36</v>
-      </c>
-      <c r="O43" s="17">
-        <v>155</v>
-      </c>
+        <v>83.55</v>
+      </c>
+      <c r="O43" s="17"/>
       <c r="Q43" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L43="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L43="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L43="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L43="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="9">
-        <f t="shared" si="9"/>
+        <f>A43+1</f>
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="D44" s="11">
-        <v>571312</v>
+        <v>771214</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G44" s="10">
         <v>1095</v>
       </c>
       <c r="H44" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M44" s="15"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17">
-        <v>140</v>
-      </c>
+      <c r="N44" s="17">
+        <v>94.95</v>
+      </c>
+      <c r="O44" s="17"/>
       <c r="Q44" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L44="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L44="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L44="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L44="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="9">
-        <f t="shared" si="9"/>
+        <f>A44+1</f>
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="D45" s="11">
-        <v>748117</v>
+        <v>470114</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="10">
         <v>1095</v>
       </c>
@@ -3673,118 +3685,116 @@
         <v>1</v>
       </c>
       <c r="I45" s="9">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="17">
-        <v>90.99</v>
-      </c>
-      <c r="O45" s="17"/>
+        <v>126.36</v>
+      </c>
+      <c r="O45" s="17">
+        <v>155</v>
+      </c>
       <c r="Q45" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L45="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L45="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L45="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L45="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="9">
-        <f t="shared" si="9"/>
+        <f>A45+1</f>
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="D46" s="11">
-        <v>971119</v>
+        <v>571312</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="10">
         <v>1095</v>
       </c>
       <c r="H46" s="9">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9">
-        <v>2019</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" s="9"/>
       <c r="J46" s="10" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M46" s="15"/>
-      <c r="N46" s="17">
-        <v>109.75</v>
-      </c>
-      <c r="O46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17">
+        <v>140</v>
+      </c>
       <c r="Q46" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L46="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L46="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L46="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L46="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="9">
-        <f t="shared" si="9"/>
+        <f>A46+1</f>
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D47" s="11">
-        <v>152118</v>
+        <v>748117</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="G47" s="10">
         <v>1095</v>
@@ -3793,58 +3803,58 @@
         <v>1</v>
       </c>
       <c r="I47" s="9">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="17">
-        <v>75.2</v>
+        <v>90.99</v>
       </c>
       <c r="O47" s="17"/>
       <c r="Q47" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L47="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L47="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L47="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L47="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="9">
-        <f t="shared" si="9"/>
+        <f>A47+1</f>
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="D48" s="11">
-        <v>151116</v>
+        <v>971119</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="G48" s="10">
         <v>1095</v>
@@ -3853,102 +3863,102 @@
         <v>1</v>
       </c>
       <c r="I48" s="9">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="17">
-        <v>124.95</v>
+        <v>109.75</v>
       </c>
       <c r="O48" s="17"/>
       <c r="Q48" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L48="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L48="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L48="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L48="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="9">
-        <f t="shared" si="9"/>
+        <f>A48+1</f>
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D49" s="11">
-        <v>151213</v>
+        <v>152118</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="G49" s="10">
         <v>1095</v>
       </c>
       <c r="H49" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="9">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>214</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="17">
-        <v>105.53</v>
+        <v>75.2</v>
       </c>
       <c r="O49" s="17"/>
       <c r="Q49" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L49="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L49="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L49="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L49="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9">
-        <f t="shared" si="9"/>
+        <f>A49+1</f>
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3958,57 +3968,57 @@
         <v>11</v>
       </c>
       <c r="D50" s="11">
-        <v>151214</v>
+        <v>151116</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G50" s="10">
         <v>1095</v>
       </c>
       <c r="H50" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="9">
         <v>2014</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="17">
-        <v>119.95</v>
+        <v>124.95</v>
       </c>
       <c r="O50" s="17"/>
       <c r="Q50" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L50="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L50="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L50="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L50="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="9">
-        <f t="shared" si="9"/>
+        <f>A50+1</f>
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4018,10 +4028,10 @@
         <v>11</v>
       </c>
       <c r="D51" s="11">
-        <v>151214</v>
+        <v>151213</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>40</v>
@@ -4032,210 +4042,234 @@
       <c r="H51" s="9">
         <v>2</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9">
+        <v>2014</v>
+      </c>
       <c r="J51" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>261</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="17">
-        <v>119.95</v>
+        <v>105.53</v>
       </c>
       <c r="O51" s="17"/>
       <c r="Q51" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L51="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L51="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L51="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L51="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="9">
-        <f t="shared" si="9"/>
+        <f>A51+1</f>
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="D52" s="11">
-        <v>981316</v>
+        <v>151214</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="G52" s="10">
         <v>1095</v>
       </c>
       <c r="H52" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="9">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K52" s="2"/>
       <c r="L52" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="17">
-        <v>141.53</v>
+        <v>119.95</v>
       </c>
       <c r="O52" s="17"/>
       <c r="Q52" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L52="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF($L52="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>IF($L52="Fixed",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L52="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="9">
-        <f t="shared" si="9"/>
+        <f>A52+1</f>
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="2">
-        <v>1095</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D53" s="11">
+        <v>151214</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G53" s="10">
         <v>1095</v>
       </c>
       <c r="H53" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="2"/>
+      <c r="J53" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="L53" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="17"/>
+      <c r="N53" s="17">
+        <v>119.95</v>
+      </c>
       <c r="O53" s="17"/>
       <c r="Q53" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L53="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF($L53="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>IF($L53="Fixed",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L53="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="9">
-        <f t="shared" si="9"/>
+        <f>A53+1</f>
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="D54" s="11">
+        <v>981316</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="10" t="s">
-        <v>53</v>
+        <v>252</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1095</v>
       </c>
       <c r="H54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="9">
+        <v>2016</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>253</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M54" s="15"/>
-      <c r="N54" s="17"/>
+      <c r="N54" s="17">
+        <v>141.53</v>
+      </c>
       <c r="O54" s="17"/>
       <c r="Q54" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L54="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L54="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L54="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L54="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="9">
-        <f t="shared" si="9"/>
+        <f>A54+1</f>
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="2" t="s">
-        <v>137</v>
+      <c r="E55" s="2">
+        <v>1095</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="10" t="s">
-        <v>137</v>
+      <c r="G55" s="10">
+        <v>1095</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
@@ -4244,421 +4278,401 @@
       <c r="J55" s="10"/>
       <c r="K55" s="2"/>
       <c r="L55" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="Q55" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L55="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L55="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L55="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L55="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="9">
-        <f t="shared" si="9"/>
+        <f>A55+1</f>
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="10" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="H56" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="J56" s="10"/>
       <c r="K56" s="2"/>
       <c r="L56" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="Q56" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L56="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L56="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF($L56="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF($L56="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="9">
-        <f t="shared" si="9"/>
+        <f>A56+1</f>
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>280</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="10" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="H57" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="10" t="s">
-        <v>281</v>
-      </c>
+      <c r="J57" s="10"/>
       <c r="K57" s="2"/>
       <c r="L57" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M57" s="15"/>
-      <c r="N57" s="17">
-        <v>49</v>
-      </c>
+      <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="Q57" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L57="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L57="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF($L57="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF($L57="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="9">
-        <f t="shared" si="9"/>
+        <f>A57+1</f>
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H58" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="Q58" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L58="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L58="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L58="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L58="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="9">
-        <f t="shared" si="9"/>
+        <f>A58+1</f>
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H59" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M59" s="15"/>
-      <c r="N59" s="17"/>
+      <c r="N59" s="17">
+        <v>49</v>
+      </c>
       <c r="O59" s="17"/>
       <c r="Q59" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L59="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L59="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L59="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L59="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="9">
-        <f t="shared" si="9"/>
+        <f>A59+1</f>
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="H60" s="9">
-        <v>1</v>
-      </c>
-      <c r="I60" s="9">
-        <v>2015</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="2"/>
       <c r="L60" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M60" s="15"/>
-      <c r="N60" s="17">
-        <v>129.94999999999999</v>
-      </c>
+      <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="Q60" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L60="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF($L60="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L60="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF($L60="Multi",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="9">
-        <f t="shared" si="9"/>
+        <f>A60+1</f>
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="10">
-        <v>1095</v>
+        <v>40</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="H61" s="9">
-        <v>1</v>
-      </c>
-      <c r="I61" s="9">
-        <v>2014</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>220</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="2"/>
       <c r="L61" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M61" s="15"/>
-      <c r="N61" s="17">
-        <v>119.95</v>
-      </c>
+      <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="Q61" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L61="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF($L61="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L61="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF($L61="Multi",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="9">
-        <f t="shared" si="9"/>
+        <f>A61+1</f>
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62" s="13">
-        <v>99</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="2" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="H62" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" s="9">
         <v>2015</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="17">
-        <v>105.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="O62" s="17"/>
       <c r="Q62" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L62="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L62="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L62="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L62="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="9">
-        <f t="shared" si="9"/>
+        <f>A62+1</f>
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="11">
-        <v>51</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="G63" s="10">
         <v>1095</v>
@@ -4666,478 +4680,490 @@
       <c r="H63" s="9">
         <v>1</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="I63" s="9">
+        <v>2014</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K63" s="2"/>
       <c r="L63" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M63" s="15"/>
-      <c r="N63" s="17"/>
+      <c r="N63" s="17">
+        <v>119.95</v>
+      </c>
       <c r="O63" s="17"/>
       <c r="Q63" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L63="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L63="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L63="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L63="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="9">
-        <f t="shared" si="9"/>
+        <f>A63+1</f>
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="11">
-        <v>51</v>
+      <c r="C64" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="13">
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G64" s="10"/>
+        <v>206</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H64" s="9">
-        <v>2</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2015</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M64" s="15"/>
-      <c r="N64" s="17"/>
+      <c r="N64" s="17">
+        <v>105.95</v>
+      </c>
       <c r="O64" s="17"/>
       <c r="Q64" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L64="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L64="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L64="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L64="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="9">
-        <f t="shared" si="9"/>
+        <f>A64+1</f>
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D65" s="11">
+        <v>51</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>53</v>
+        <v>206</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1095</v>
       </c>
       <c r="H65" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="10"/>
       <c r="K65" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
       <c r="Q65" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L65="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L65="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L65="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L65="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="9">
-        <f t="shared" si="9"/>
+        <f>A65+1</f>
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D66" s="11">
+        <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G66" s="10"/>
       <c r="H66" s="9">
         <v>2</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="10"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="L66" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L66="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L66="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L66="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L66="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="9">
-        <f t="shared" si="9"/>
+        <f>A66+1</f>
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H67" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="10"/>
       <c r="K67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="Q67" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L67="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L67="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L67="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L67="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="9">
-        <f t="shared" si="9"/>
+        <f>A67+1</f>
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H68" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="Q68" s="2">
-        <f t="shared" ref="Q68:Q99" si="10">IF($L68="Mod",1,0)</f>
+        <f>IF($L68="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" ref="R68:R99" si="11">IF($L68="Trad",1,0)</f>
+        <f>IF($L68="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" ref="S68:S99" si="12">IF($L68="Fixed",1,0)</f>
+        <f>IF($L68="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" ref="T68:T99" si="13">IF($L68="Multi",1,0)</f>
+        <f>IF($L68="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="9">
-        <f t="shared" ref="A69:A100" si="14">A68+1</f>
+        <f>A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H69" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="10"/>
       <c r="K69" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="Q69" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L69="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L69="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L69="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L69="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="9">
-        <f t="shared" si="14"/>
+        <f>A69+1</f>
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H70" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="10"/>
       <c r="K70" s="2" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="Q70" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L70="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L70="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L70="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L70="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="9">
-        <f t="shared" si="14"/>
+        <f>A70+1</f>
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="H71" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="10"/>
       <c r="K71" s="2" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="Q71" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>IF($L71="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF($L71="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L71="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L71="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="9">
-        <f t="shared" si="14"/>
+        <f>A71+1</f>
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="2" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="H72" s="9">
         <v>1</v>
@@ -5145,157 +5171,157 @@
       <c r="I72" s="9"/>
       <c r="J72" s="10"/>
       <c r="K72" s="2" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="Q72" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>IF($L72="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF($L72="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L72="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L72="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="9">
-        <f t="shared" si="14"/>
+        <f>A72+1</f>
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>153</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G73" s="10"/>
       <c r="H73" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="10"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="L73" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="Q73" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L73="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L73="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L73="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L73="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="9">
-        <f t="shared" si="14"/>
+        <f>A73+1</f>
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>82</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D74" s="11"/>
       <c r="E74" s="2" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="H74" s="9">
         <v>1</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="10"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="L74" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="Q74" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L74="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L74="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L74="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T74" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L74="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="9">
-        <f t="shared" si="14"/>
+        <f>A74+1</f>
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="H75" s="9">
         <v>1</v>
@@ -5304,50 +5330,50 @@
       <c r="J75" s="10"/>
       <c r="K75" s="2"/>
       <c r="L75" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="Q75" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L75="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L75="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L75="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L75="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="9">
-        <f t="shared" si="14"/>
+        <f>A75+1</f>
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H76" s="9">
         <v>1</v>
@@ -5356,50 +5382,50 @@
       <c r="J76" s="10"/>
       <c r="K76" s="2"/>
       <c r="L76" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="Q76" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L76="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L76="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L76="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L76="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="9">
-        <f t="shared" si="14"/>
+        <f>A76+1</f>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
@@ -5408,50 +5434,50 @@
       <c r="J77" s="10"/>
       <c r="K77" s="2"/>
       <c r="L77" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="Q77" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L77="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L77="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L77="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L77="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="9">
-        <f t="shared" si="14"/>
+        <f>A77+1</f>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H78" s="9">
         <v>1</v>
@@ -5460,104 +5486,102 @@
       <c r="J78" s="10"/>
       <c r="K78" s="2"/>
       <c r="L78" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="Q78" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L78="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L78="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L78="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L78="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="9">
-        <f t="shared" si="14"/>
+        <f>A78+1</f>
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H79" s="9">
         <v>1</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="Q79" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L79="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L79="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L79="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L79="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="9">
-        <f t="shared" si="14"/>
+        <f>A79+1</f>
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="H80" s="9">
         <v>1</v>
@@ -5566,102 +5590,104 @@
       <c r="J80" s="10"/>
       <c r="K80" s="2"/>
       <c r="L80" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="Q80" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L80="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L80="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L80="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L80="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="9">
-        <f t="shared" si="14"/>
+        <f>A80+1</f>
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="L81" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="Q81" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L81="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L81="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L81="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L81="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="9">
-        <f t="shared" si="14"/>
+        <f>A81+1</f>
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H82" s="9">
         <v>1</v>
@@ -5670,50 +5696,50 @@
       <c r="J82" s="10"/>
       <c r="K82" s="2"/>
       <c r="L82" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="Q82" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L82="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L82="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L82="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L82="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="9">
-        <f t="shared" si="14"/>
+        <f>A82+1</f>
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H83" s="9">
         <v>1</v>
@@ -5722,50 +5748,50 @@
       <c r="J83" s="10"/>
       <c r="K83" s="2"/>
       <c r="L83" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="Q83" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L83="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L83="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L83="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L83="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="9">
-        <f t="shared" si="14"/>
+        <f>A83+1</f>
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="H84" s="9">
         <v>1</v>
@@ -5774,50 +5800,50 @@
       <c r="J84" s="10"/>
       <c r="K84" s="2"/>
       <c r="L84" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="Q84" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L84="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L84="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L84="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L84="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="9">
-        <f t="shared" si="14"/>
+        <f>A84+1</f>
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="H85" s="9">
         <v>1</v>
@@ -5826,41 +5852,41 @@
       <c r="J85" s="10"/>
       <c r="K85" s="2"/>
       <c r="L85" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
       <c r="Q85" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L85="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L85="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L85="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L85="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="9">
-        <f t="shared" si="14"/>
+        <f>A85+1</f>
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>19</v>
@@ -5869,7 +5895,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H86" s="9">
         <v>1</v>
@@ -5878,41 +5904,41 @@
       <c r="J86" s="10"/>
       <c r="K86" s="2"/>
       <c r="L86" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="Q86" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L86="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L86="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L86="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L86="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="9">
-        <f t="shared" si="14"/>
+        <f>A86+1</f>
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>19</v>
@@ -5921,7 +5947,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H87" s="9">
         <v>1</v>
@@ -5930,50 +5956,50 @@
       <c r="J87" s="10"/>
       <c r="K87" s="2"/>
       <c r="L87" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="Q87" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L87="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L87="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L87="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L87="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="9">
-        <f t="shared" si="14"/>
+        <f>A87+1</f>
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H88" s="9">
         <v>1</v>
@@ -5982,41 +6008,41 @@
       <c r="J88" s="10"/>
       <c r="K88" s="2"/>
       <c r="L88" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="Q88" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L88="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L88="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L88="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L88="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="9">
-        <f t="shared" si="14"/>
+        <f>A88+1</f>
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>19</v>
@@ -6025,7 +6051,7 @@
         <v>19</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H89" s="9">
         <v>1</v>
@@ -6034,50 +6060,50 @@
       <c r="J89" s="10"/>
       <c r="K89" s="2"/>
       <c r="L89" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="Q89" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L89="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L89="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L89="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L89="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="9">
-        <f t="shared" si="14"/>
+        <f>A89+1</f>
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -6086,102 +6112,102 @@
       <c r="J90" s="10"/>
       <c r="K90" s="2"/>
       <c r="L90" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="Q90" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L90="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L90="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L90="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L90="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="9">
-        <f t="shared" si="14"/>
+        <f>A90+1</f>
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="H91" s="9">
         <v>1</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="10"/>
-      <c r="K91" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="K91" s="2"/>
       <c r="L91" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
       <c r="Q91" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L91="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L91="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L91="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L91="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="9">
-        <f t="shared" si="14"/>
+        <f>A91+1</f>
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H92" s="9">
         <v>1</v>
@@ -6190,102 +6216,102 @@
       <c r="J92" s="10"/>
       <c r="K92" s="2"/>
       <c r="L92" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="Q92" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L92="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L92="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L92="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L92="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="9">
-        <f t="shared" si="14"/>
+        <f>A92+1</f>
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G93" s="10"/>
       <c r="H93" s="9">
         <v>1</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="L93" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="Q93" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L93="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L93="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L93="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L93="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="9">
-        <f t="shared" si="14"/>
+        <f>A93+1</f>
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H94" s="9">
         <v>1</v>
@@ -6294,50 +6320,50 @@
       <c r="J94" s="10"/>
       <c r="K94" s="2"/>
       <c r="L94" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="Q94" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L94="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L94="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L94="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L94="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="9">
-        <f t="shared" si="14"/>
+        <f>A94+1</f>
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H95" s="9">
         <v>1</v>
@@ -6346,50 +6372,50 @@
       <c r="J95" s="10"/>
       <c r="K95" s="2"/>
       <c r="L95" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="Q95" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L95="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L95="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L95="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L95="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="9">
-        <f t="shared" si="14"/>
+        <f>A95+1</f>
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H96" s="9">
         <v>1</v>
@@ -6398,50 +6424,50 @@
       <c r="J96" s="10"/>
       <c r="K96" s="2"/>
       <c r="L96" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="Q96" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L96="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R96" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L96="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L96="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L96="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="9">
-        <f t="shared" si="14"/>
+        <f>A96+1</f>
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
@@ -6450,50 +6476,50 @@
       <c r="J97" s="10"/>
       <c r="K97" s="2"/>
       <c r="L97" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="Q97" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L97="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L97="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L97="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L97="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="9">
-        <f t="shared" si="14"/>
+        <f>A97+1</f>
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="H98" s="9">
         <v>1</v>
@@ -6502,38 +6528,38 @@
       <c r="J98" s="10"/>
       <c r="K98" s="2"/>
       <c r="L98" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="Q98" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L98="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L98="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L98="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L98="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="9">
-        <f t="shared" si="14"/>
+        <f>A98+1</f>
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>164</v>
@@ -6545,7 +6571,7 @@
         <v>40</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H99" s="9">
         <v>1</v>
@@ -6554,50 +6580,50 @@
       <c r="J99" s="10"/>
       <c r="K99" s="2"/>
       <c r="L99" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="Q99" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L99="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L99="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L99="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L99="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="9">
-        <f t="shared" si="14"/>
+        <f>A99+1</f>
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="H100" s="9">
         <v>1</v>
@@ -6606,57 +6632,57 @@
       <c r="J100" s="10"/>
       <c r="K100" s="2"/>
       <c r="L100" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="Q100" s="2">
-        <f t="shared" ref="Q100:Q115" si="15">IF($L100="Mod",1,0)</f>
-        <v>0</v>
+        <f>IF($L100="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" ref="R100:R115" si="16">IF($L100="Trad",1,0)</f>
-        <v>1</v>
+        <f>IF($L100="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" ref="S100:S115" si="17">IF($L100="Fixed",1,0)</f>
+        <f>IF($L100="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" ref="T100:T115" si="18">IF($L100="Multi",1,0)</f>
+        <f>IF($L100="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="9">
-        <f t="shared" ref="A101:A117" si="19">A100+1</f>
+        <f>A100+1</f>
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H101" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
-      <c r="K101" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="K101" s="2"/>
       <c r="L101" s="9" t="s">
         <v>186</v>
       </c>
@@ -6664,217 +6690,225 @@
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="Q101" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF($L101="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L101="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L101="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF($L101="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="9">
-        <f t="shared" si="19"/>
+        <f>A101+1</f>
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D102" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E102" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G102" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H102" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
       <c r="K102" s="2"/>
       <c r="L102" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="Q102" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L102="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>IF($L102="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L102="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF($L102="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="9">
-        <f t="shared" si="19"/>
+        <f>A102+1</f>
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="H103" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L103" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="Q103" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L103="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>IF($L103="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L103="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF($L103="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="9">
-        <f t="shared" si="19"/>
+        <f>A103+1</f>
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="2"/>
       <c r="L104" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="Q104" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L104="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L104="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L104="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L104="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="9">
-        <f t="shared" si="19"/>
+        <f>A104+1</f>
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
       <c r="K105" s="2"/>
       <c r="L105" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M105" s="15"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="Q105" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L105="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L105="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L105="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L105="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="9">
-        <f t="shared" si="19"/>
+        <f>A105+1</f>
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -6888,7 +6922,7 @@
         <v>35</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="9">
@@ -6898,45 +6932,45 @@
       <c r="J106" s="10"/>
       <c r="K106" s="2"/>
       <c r="L106" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M106" s="15"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="Q106" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L106="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L106="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L106="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L106="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="9">
-        <f t="shared" si="19"/>
+        <f>A106+1</f>
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="2" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="9">
@@ -6946,182 +6980,182 @@
       <c r="J107" s="10"/>
       <c r="K107" s="2"/>
       <c r="L107" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M107" s="15"/>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="Q107" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L107="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L107="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L107="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L107="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="9">
-        <f t="shared" si="19"/>
+        <f>A107+1</f>
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
       <c r="K108" s="2"/>
       <c r="L108" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M108" s="15"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="Q108" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L108="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L108="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L108="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L108="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="9">
-        <f t="shared" si="19"/>
+        <f>A108+1</f>
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
       <c r="K109" s="2"/>
       <c r="L109" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M109" s="15"/>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="Q109" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L109="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L109="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L109="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L109="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="9">
-        <f t="shared" si="19"/>
+        <f>A109+1</f>
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="2" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
       <c r="K110" s="2"/>
       <c r="L110" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M110" s="15"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="Q110" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L110="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L110="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L110="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L110="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="9">
-        <f t="shared" si="19"/>
+        <f>A110+1</f>
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="2" t="s">
@@ -7132,140 +7166,140 @@
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
       <c r="K111" s="2"/>
       <c r="L111" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M111" s="15"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="Q111" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L111="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L111="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S111" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L111="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L111="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="9">
-        <f t="shared" si="19"/>
+        <f>A111+1</f>
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
       <c r="K112" s="2"/>
       <c r="L112" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M112" s="15"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="Q112" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L112="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L112="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S112" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L112="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L112="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="9">
-        <f t="shared" si="19"/>
+        <f>A112+1</f>
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
       <c r="K113" s="2"/>
       <c r="L113" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M113" s="15"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="Q113" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L113="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L113="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L113="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L113="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="9">
-        <f t="shared" si="19"/>
+        <f>A113+1</f>
         <v>111</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="20" t="s">
@@ -7276,51 +7310,51 @@
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I114" s="23"/>
       <c r="J114" s="21"/>
       <c r="K114" s="20"/>
       <c r="L114" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M114" s="15"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="Q114" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L114="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L114="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L114="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L114="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="19">
-        <f t="shared" si="19"/>
+        <f>A114+1</f>
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="9">
@@ -7330,38 +7364,38 @@
       <c r="J115" s="10"/>
       <c r="K115" s="2"/>
       <c r="L115" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M115" s="15"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="Q115" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L115="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L115="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S115" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L115="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L115="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="9">
-        <f t="shared" si="19"/>
+        <f>A115+1</f>
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="2" t="s">
@@ -7372,92 +7406,186 @@
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
       <c r="K116" s="2"/>
       <c r="L116" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M116" s="15"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
+      <c r="Q116" s="2">
+        <f>IF($L116="Mod",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R116" s="2">
+        <f>IF($L116="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S116" s="2">
+        <f>IF($L116="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T116" s="2">
+        <f>IF($L116="Multi",1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="9">
-        <f t="shared" si="19"/>
+        <f>A116+1</f>
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D117" s="11"/>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G117" s="10"/>
       <c r="H117" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I117" s="9"/>
-      <c r="J117" s="10" t="s">
-        <v>215</v>
-      </c>
+      <c r="J117" s="10"/>
       <c r="K117" s="2"/>
       <c r="L117" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M117" s="15"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
+      <c r="Q117" s="2">
+        <f>IF($L117="Mod",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R117" s="2">
+        <f>IF($L117="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S117" s="2">
+        <f>IF($L117="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T117" s="2">
+        <f>IF($L117="Multi",1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:20">
-      <c r="B118" s="1"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
+      <c r="A118" s="9">
+        <f>A117+1</f>
+        <v>115</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="9">
+        <v>6</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M118" s="15"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="Q118" s="2">
+        <f>IF($L118="Mod",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R118" s="2">
+        <f>IF($L118="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S118" s="2">
+        <f>IF($L118="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T118" s="2">
+        <f>IF($L118="Multi",1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:20">
+      <c r="A119" s="9">
+        <f>A118+1</f>
+        <v>116</v>
+      </c>
       <c r="B119" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="11">
-        <f>Q123</f>
-        <v>35</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M119" s="15"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="Q119" s="2">
+        <f>IF($L119="Mod",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R119" s="2">
+        <f>IF($L119="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <f>IF($L119="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <f>IF($L119="Multi",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:20">
-      <c r="B120" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" s="11">
-        <f>S123</f>
-        <v>9</v>
-      </c>
+      <c r="B120" s="1"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -7465,11 +7593,11 @@
     </row>
     <row r="121" spans="1:20">
       <c r="B121" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C121" s="11">
-        <f>R123</f>
-        <v>49</v>
+        <f>Q125</f>
+        <v>36</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
@@ -7478,10 +7606,11 @@
     </row>
     <row r="122" spans="1:20">
       <c r="B122" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="14">
-        <v>21</v>
+        <v>187</v>
+      </c>
+      <c r="C122" s="11">
+        <f>S125</f>
+        <v>11</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
@@ -7490,35 +7619,61 @@
     </row>
     <row r="123" spans="1:20">
       <c r="B123" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C123" s="11">
-        <f>SUM(C119:C122)</f>
-        <v>114</v>
-      </c>
-      <c r="Q123" s="2">
-        <f>SUM(Q4:Q122)</f>
-        <v>35</v>
-      </c>
-      <c r="R123" s="2">
-        <f>SUM(R4:R122)</f>
-        <v>49</v>
-      </c>
-      <c r="S123" s="2">
-        <f>SUM(S4:S122)</f>
-        <v>9</v>
-      </c>
-      <c r="T123" s="2">
-        <f>SUM(T4:T122)</f>
+        <f>R125</f>
+        <v>50</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="B124" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C124" s="14">
+        <f>T125</f>
         <v>19</v>
       </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="B125" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="11">
+        <f>SUM(C121:C124)</f>
+        <v>116</v>
+      </c>
+      <c r="Q125" s="2">
+        <f>SUM(Q4:Q124)</f>
+        <v>36</v>
+      </c>
+      <c r="R125" s="2">
+        <f>SUM(R4:R124)</f>
+        <v>50</v>
+      </c>
+      <c r="S125" s="2">
+        <f>SUM(S4:S124)</f>
+        <v>11</v>
+      </c>
+      <c r="T125" s="2">
+        <f>SUM(T4:T124)</f>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L123"/>
-  <sortState ref="B4:L117">
-    <sortCondition ref="B4:B117"/>
-    <sortCondition ref="C4:C117"/>
-    <sortCondition ref="D4:D117"/>
+  <autoFilter ref="L1:L125"/>
+  <sortState ref="A4:T119">
+    <sortCondition ref="B4:B119"/>
+    <sortCondition ref="C4:C119"/>
+    <sortCondition ref="D4:D119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="299">
   <si>
     <t>GEC Northfield</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -861,9 +858,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
@@ -919,6 +913,9 @@
   </si>
   <si>
     <t>Custom, OAL 8.125, Blade 3.875, 8.6 oz</t>
+  </si>
+  <si>
+    <t>Maker</t>
   </si>
 </sst>
 </file>
@@ -1387,20 +1384,20 @@
     <col min="10" max="10" width="28.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.85546875" style="7" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="16" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="4" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="16" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="8">
         <v>43959</v>
@@ -1408,59 +1405,59 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1468,59 +1465,59 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="Q4" s="2">
-        <f>IF($L4="Mod",1,0)</f>
+        <f t="shared" ref="Q4:Q35" si="0">IF($L4="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>IF($L4="Trad",1,0)</f>
+        <f t="shared" ref="R4:R35" si="1">IF($L4="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f>IF($L4="Fixed",1,0)</f>
+        <f t="shared" ref="S4:S35" si="2">IF($L4="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <f>IF($L4="Multi",1,0)</f>
+        <f t="shared" ref="T4:T35" si="3">IF($L4="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A36" si="4">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10">
         <v>710</v>
@@ -1529,13 +1526,13 @@
         <v>710</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
@@ -1543,51 +1540,51 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="Q5" s="2">
-        <f>IF($L5="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <f>IF($L5="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f>IF($L5="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f>IF($L5="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="9">
-        <f>A5+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1596,48 +1593,48 @@
       <c r="J6" s="10"/>
       <c r="K6" s="2"/>
       <c r="L6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="Q6" s="2">
-        <f>IF($L6="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f>IF($L6="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f>IF($L6="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <f>IF($L6="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9">
-        <f>A6+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1646,48 +1643,48 @@
       <c r="J7" s="10"/>
       <c r="K7" s="2"/>
       <c r="L7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="Q7" s="2">
-        <f>IF($L7="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <f>IF($L7="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f>IF($L7="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f>IF($L7="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9">
-        <f>A7+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
@@ -1696,35 +1693,35 @@
       <c r="J8" s="10"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="Q8" s="2">
-        <f>IF($L8="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f>IF($L8="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f>IF($L8="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8" s="2">
-        <f>IF($L8="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9">
-        <f>A8+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="10">
         <v>110</v>
@@ -1733,24 +1730,24 @@
         <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="17">
@@ -1758,42 +1755,42 @@
       </c>
       <c r="O9" s="17"/>
       <c r="Q9" s="2">
-        <f>IF($L9="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>IF($L9="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <f>IF($L9="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <f>IF($L9="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9">
-        <f>A9+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="9">
         <v>2</v>
@@ -1802,13 +1799,13 @@
         <v>2015</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="17">
@@ -1816,44 +1813,44 @@
       </c>
       <c r="O10" s="17"/>
       <c r="Q10" s="2">
-        <f>IF($L10="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>IF($L10="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10" s="2">
-        <f>IF($L10="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f>IF($L10="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="9">
-        <f>A10+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11">
         <v>3220</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="9">
         <v>2</v>
@@ -1862,50 +1859,50 @@
       <c r="J11" s="10"/>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="Q11" s="2">
-        <f>IF($L11="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>IF($L11="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="2">
-        <f>IF($L11="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f>IF($L11="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="9">
-        <f>A11+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="11">
         <v>6220</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H12" s="9">
         <v>2</v>
@@ -1914,50 +1911,50 @@
       <c r="J12" s="10"/>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="2">
-        <f>IF($L12="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f>IF($L12="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f>IF($L12="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f>IF($L12="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="9">
-        <f>A12+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="9">
         <v>2</v>
@@ -1966,50 +1963,50 @@
       <c r="J13" s="10"/>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="2">
-        <f>IF($L13="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>IF($L13="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <f>IF($L13="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f>IF($L13="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="9">
-        <f>A13+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11">
         <v>2137</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -2018,50 +2015,50 @@
       <c r="J14" s="10"/>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="2">
-        <f>IF($L14="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>IF($L14="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="2">
-        <f>IF($L14="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f>IF($L14="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9">
-        <f>A14+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11">
         <v>3137</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -2070,50 +2067,50 @@
       <c r="J15" s="10"/>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="Q15" s="2">
-        <f>IF($L15="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>IF($L15="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <f>IF($L15="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f>IF($L15="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="9">
-        <f>A15+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11">
         <v>6375</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H16" s="9">
         <v>3</v>
@@ -2122,50 +2119,50 @@
       <c r="J16" s="10"/>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="Q16" s="2">
-        <f>IF($L16="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>IF($L16="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <f>IF($L16="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f>IF($L16="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="9">
-        <f>A16+1</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11">
         <v>63032</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H17" s="9">
         <v>3</v>
@@ -2174,50 +2171,50 @@
       <c r="J17" s="10"/>
       <c r="K17" s="2"/>
       <c r="L17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="2">
-        <f>IF($L17="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>IF($L17="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S17" s="2">
-        <f>IF($L17="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f>IF($L17="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="9">
-        <f>A17+1</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="9">
         <v>3</v>
@@ -2225,53 +2222,53 @@
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="Q18" s="2">
-        <f>IF($L18="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>IF($L18="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S18" s="2">
-        <f>IF($L18="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f>IF($L18="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9">
-        <f>A18+1</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="9">
         <v>2</v>
@@ -2279,53 +2276,53 @@
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="Q19" s="2">
-        <f>IF($L19="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>IF($L19="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f>IF($L19="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f>IF($L19="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="9">
-        <f>A19+1</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="9">
         <v>1</v>
@@ -2333,53 +2330,53 @@
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
       <c r="K20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="Q20" s="2">
-        <f>IF($L20="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>IF($L20="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f>IF($L20="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f>IF($L20="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="9">
-        <f>A20+1</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="11">
         <v>610096</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H21" s="9">
         <v>1</v>
@@ -2388,106 +2385,106 @@
       <c r="J21" s="10"/>
       <c r="K21" s="2"/>
       <c r="L21" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="Q21" s="2">
-        <f>IF($L21="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>IF($L21="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f>IF($L21="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f>IF($L21="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="9">
-        <f>A21+1</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H22" s="9">
         <v>2</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="Q22" s="2">
-        <f>IF($L22="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>IF($L22="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f>IF($L22="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f>IF($L22="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="9">
-        <f>A22+1</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="11">
         <v>1725</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -2495,10 +2492,10 @@
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
       <c r="K23" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="17">
@@ -2506,42 +2503,42 @@
       </c>
       <c r="O23" s="17"/>
       <c r="Q23" s="2">
-        <f>IF($L23="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>IF($L23="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f>IF($L23="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f>IF($L23="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9">
-        <f>A23+1</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
@@ -2550,11 +2547,11 @@
         <v>2017</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="17">
@@ -2562,42 +2559,42 @@
       </c>
       <c r="O24" s="17"/>
       <c r="Q24" s="2">
-        <f>IF($L24="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f>IF($L24="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f>IF($L24="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f>IF($L24="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9">
-        <f>A24+1</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -2606,13 +2603,13 @@
         <v>2015</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="17">
@@ -2620,44 +2617,44 @@
       </c>
       <c r="O25" s="17"/>
       <c r="Q25" s="2">
-        <f>IF($L25="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>IF($L25="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f>IF($L25="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f>IF($L25="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9">
-        <f>A25+1</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="11">
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
@@ -2666,13 +2663,13 @@
         <v>2014</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="17">
@@ -2680,42 +2677,42 @@
       </c>
       <c r="O26" s="17"/>
       <c r="Q26" s="2">
-        <f>IF($L26="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f>IF($L26="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f>IF($L26="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f>IF($L26="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="9">
-        <f>A26+1</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="H27" s="9">
         <v>1</v>
@@ -2724,13 +2721,13 @@
         <v>2018</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="17">
@@ -2740,39 +2737,39 @@
         <v>400</v>
       </c>
       <c r="Q27" s="2">
-        <f>IF($L27="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f>IF($L27="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f>IF($L27="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f>IF($L27="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="9">
-        <f>A27+1</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="9">
@@ -2781,48 +2778,48 @@
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="Q28" s="2">
-        <f>IF($L28="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>IF($L28="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f>IF($L28="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f>IF($L28="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="9">
-        <f>A28+1</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="9">
@@ -2832,102 +2829,102 @@
       <c r="J29" s="10"/>
       <c r="K29" s="2"/>
       <c r="L29" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="Q29" s="2">
-        <f>IF($L29="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>IF($L29="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f>IF($L29="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f>IF($L29="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="9">
-        <f>A29+1</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="Q30" s="2">
-        <f>IF($L30="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>IF($L30="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f>IF($L30="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f>IF($L30="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="9">
-        <f>A30+1</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
@@ -2936,7 +2933,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="2"/>
       <c r="L31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="17">
@@ -2944,36 +2941,36 @@
       </c>
       <c r="O31" s="17"/>
       <c r="Q31" s="2">
-        <f>IF($L31="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>IF($L31="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f>IF($L31="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T31" s="2">
-        <f>IF($L31="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="9">
-        <f>A31+1</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="10">
@@ -2986,44 +2983,44 @@
       <c r="J32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="Q32" s="2">
-        <f>IF($L32="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>IF($L32="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f>IF($L32="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T32" s="2">
-        <f>IF($L32="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="9">
-        <f>A32+1</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="D33" s="11">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="10">
@@ -3036,42 +3033,42 @@
       <c r="J33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="Q33" s="2">
-        <f>IF($L33="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>IF($L33="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f>IF($L33="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T33" s="2">
-        <f>IF($L33="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="9">
-        <f>A33+1</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="10">
@@ -3084,48 +3081,48 @@
       <c r="J34" s="10"/>
       <c r="K34" s="2"/>
       <c r="L34" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="Q34" s="2">
-        <f>IF($L34="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>IF($L34="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f>IF($L34="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T34" s="2">
-        <f>IF($L34="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="9">
-        <f>A34+1</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -3134,7 +3131,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="2"/>
       <c r="L35" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M35" s="15"/>
       <c r="N35" s="17">
@@ -3142,42 +3139,42 @@
       </c>
       <c r="O35" s="17"/>
       <c r="Q35" s="2">
-        <f>IF($L35="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>IF($L35="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S35" s="2">
-        <f>IF($L35="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <f>IF($L35="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="9">
-        <f>A35+1</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -3186,7 +3183,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="2"/>
       <c r="L36" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="17">
@@ -3194,42 +3191,42 @@
       </c>
       <c r="O36" s="17"/>
       <c r="Q36" s="2">
-        <f>IF($L36="Mod",1,0)</f>
+        <f t="shared" ref="Q36:Q67" si="5">IF($L36="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>IF($L36="Trad",1,0)</f>
+        <f t="shared" ref="R36:R67" si="6">IF($L36="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f>IF($L36="Fixed",1,0)</f>
+        <f t="shared" ref="S36:S67" si="7">IF($L36="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <f>IF($L36="Multi",1,0)</f>
+        <f t="shared" ref="T36:T67" si="8">IF($L36="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="9">
-        <f>A36+1</f>
+        <f t="shared" ref="A37:A68" si="9">A36+1</f>
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="H37" s="9">
         <v>1</v>
@@ -3238,7 +3235,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="2"/>
       <c r="L37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="17">
@@ -3246,41 +3243,41 @@
       </c>
       <c r="O37" s="17"/>
       <c r="Q37" s="2">
-        <f>IF($L37="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>IF($L37="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S37" s="2">
-        <f>IF($L37="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <f>IF($L37="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9">
-        <f>A37+1</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11">
         <v>772115</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="G38" s="10">
         <v>1095</v>
@@ -3290,11 +3287,11 @@
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="17">
@@ -3302,41 +3299,41 @@
       </c>
       <c r="O38" s="17"/>
       <c r="Q38" s="2">
-        <f>IF($L38="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>IF($L38="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f>IF($L38="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f>IF($L38="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="9">
-        <f>A38+1</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D39" s="11">
         <v>541214</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G39" s="10">
         <v>1095</v>
@@ -3348,11 +3345,11 @@
         <v>2014</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="17">
@@ -3360,32 +3357,32 @@
       </c>
       <c r="O39" s="17"/>
       <c r="Q39" s="2">
-        <f>IF($L39="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>IF($L39="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f>IF($L39="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f>IF($L39="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="9">
-        <f>A39+1</f>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="11">
         <v>661214</v>
@@ -3404,11 +3401,11 @@
         <v>2014</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="17">
@@ -3416,38 +3413,38 @@
       </c>
       <c r="O40" s="17"/>
       <c r="Q40" s="2">
-        <f>IF($L40="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>IF($L40="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S40" s="2">
-        <f>IF($L40="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <f>IF($L40="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="9">
-        <f>A40+1</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="11">
         <v>725213</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="10">
@@ -3460,11 +3457,11 @@
         <v>2014</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="17">
@@ -3472,41 +3469,41 @@
       </c>
       <c r="O41" s="17"/>
       <c r="Q41" s="2">
-        <f>IF($L41="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>IF($L41="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S41" s="2">
-        <f>IF($L41="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f>IF($L41="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="9">
-        <f>A41+1</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D42" s="11">
         <v>488214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="10">
         <v>1095</v>
@@ -3516,13 +3513,13 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="17">
@@ -3530,41 +3527,41 @@
       </c>
       <c r="O42" s="17"/>
       <c r="Q42" s="2">
-        <f>IF($L42="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>IF($L42="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S42" s="2">
-        <f>IF($L42="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f>IF($L42="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9">
-        <f>A42+1</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="11">
         <v>771115</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="10">
         <v>1095</v>
@@ -3574,11 +3571,11 @@
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="17">
@@ -3586,41 +3583,41 @@
       </c>
       <c r="O43" s="17"/>
       <c r="Q43" s="2">
-        <f>IF($L43="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>IF($L43="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S43" s="2">
-        <f>IF($L43="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f>IF($L43="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="9">
-        <f>A43+1</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="11">
         <v>771214</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="10">
         <v>1095</v>
@@ -3630,13 +3627,13 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="17">
@@ -3644,38 +3641,38 @@
       </c>
       <c r="O44" s="17"/>
       <c r="Q44" s="2">
-        <f>IF($L44="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>IF($L44="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S44" s="2">
-        <f>IF($L44="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f>IF($L44="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="9">
-        <f>A44+1</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="11">
         <v>470114</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="10">
@@ -3688,13 +3685,13 @@
         <v>2014</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="17">
@@ -3704,38 +3701,38 @@
         <v>155</v>
       </c>
       <c r="Q45" s="2">
-        <f>IF($L45="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>IF($L45="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S45" s="2">
-        <f>IF($L45="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <f>IF($L45="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="9">
-        <f>A45+1</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="11">
         <v>571312</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="10">
@@ -3746,13 +3743,13 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="17"/>
@@ -3760,41 +3757,41 @@
         <v>140</v>
       </c>
       <c r="Q46" s="2">
-        <f>IF($L46="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>IF($L46="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S46" s="2">
-        <f>IF($L46="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f>IF($L46="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="9">
-        <f>A46+1</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47" s="11">
         <v>748117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" s="10">
         <v>1095</v>
@@ -3806,13 +3803,13 @@
         <v>2017</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="17">
@@ -3820,41 +3817,41 @@
       </c>
       <c r="O47" s="17"/>
       <c r="Q47" s="2">
-        <f>IF($L47="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>IF($L47="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <f>IF($L47="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f>IF($L47="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="9">
-        <f>A47+1</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D48" s="11">
         <v>971119</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G48" s="10">
         <v>1095</v>
@@ -3866,13 +3863,13 @@
         <v>2019</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="17">
@@ -3880,41 +3877,41 @@
       </c>
       <c r="O48" s="17"/>
       <c r="Q48" s="2">
-        <f>IF($L48="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>IF($L48="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S48" s="2">
-        <f>IF($L48="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f>IF($L48="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="9">
-        <f>A48+1</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D49" s="11">
         <v>152118</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G49" s="10">
         <v>1095</v>
@@ -3926,13 +3923,13 @@
         <v>2018</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="17">
@@ -3940,41 +3937,41 @@
       </c>
       <c r="O49" s="17"/>
       <c r="Q49" s="2">
-        <f>IF($L49="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>IF($L49="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S49" s="2">
-        <f>IF($L49="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f>IF($L49="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9">
-        <f>A49+1</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D50" s="11">
         <v>151116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="10">
         <v>1095</v>
@@ -3986,13 +3983,13 @@
         <v>2014</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="17">
@@ -4000,41 +3997,41 @@
       </c>
       <c r="O50" s="17"/>
       <c r="Q50" s="2">
-        <f>IF($L50="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>IF($L50="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S50" s="2">
-        <f>IF($L50="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f>IF($L50="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="9">
-        <f>A50+1</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D51" s="11">
         <v>151213</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="10">
         <v>1095</v>
@@ -4046,13 +4043,13 @@
         <v>2014</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="17">
@@ -4060,41 +4057,41 @@
       </c>
       <c r="O51" s="17"/>
       <c r="Q51" s="2">
-        <f>IF($L51="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>IF($L51="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S51" s="2">
-        <f>IF($L51="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f>IF($L51="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="9">
-        <f>A51+1</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D52" s="11">
         <v>151214</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G52" s="10">
         <v>1095</v>
@@ -4106,13 +4103,13 @@
         <v>2014</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="17">
@@ -4120,41 +4117,41 @@
       </c>
       <c r="O52" s="17"/>
       <c r="Q52" s="2">
-        <f>IF($L52="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>IF($L52="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S52" s="2">
-        <f>IF($L52="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f>IF($L52="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="9">
-        <f>A52+1</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D53" s="11">
         <v>151214</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="10">
         <v>1095</v>
@@ -4164,13 +4161,13 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="17">
@@ -4178,41 +4175,41 @@
       </c>
       <c r="O53" s="17"/>
       <c r="Q53" s="2">
-        <f>IF($L53="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>IF($L53="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S53" s="2">
-        <f>IF($L53="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f>IF($L53="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="9">
-        <f>A53+1</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D54" s="11">
         <v>981316</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" s="10">
         <v>1095</v>
@@ -4224,11 +4221,11 @@
         <v>2016</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="17">
@@ -4236,32 +4233,32 @@
       </c>
       <c r="O54" s="17"/>
       <c r="Q54" s="2">
-        <f>IF($L54="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>IF($L54="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <f>IF($L54="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T54" s="2">
-        <f>IF($L54="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="9">
-        <f>A54+1</f>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="2">
@@ -4278,46 +4275,46 @@
       <c r="J55" s="10"/>
       <c r="K55" s="2"/>
       <c r="L55" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="Q55" s="2">
-        <f>IF($L55="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>IF($L55="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <f>IF($L55="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T55" s="2">
-        <f>IF($L55="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="9">
-        <f>A55+1</f>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="9">
         <v>1</v>
@@ -4326,46 +4323,46 @@
       <c r="J56" s="10"/>
       <c r="K56" s="2"/>
       <c r="L56" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="Q56" s="2">
-        <f>IF($L56="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>IF($L56="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f>IF($L56="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T56" s="2">
-        <f>IF($L56="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="9">
-        <f>A56+1</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="9">
         <v>1</v>
@@ -4374,113 +4371,111 @@
       <c r="J57" s="10"/>
       <c r="K57" s="2"/>
       <c r="L57" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="Q57" s="2">
-        <f>IF($L57="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>IF($L57="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <f>IF($L57="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T57" s="2">
-        <f>IF($L57="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="9">
-        <f>A57+1</f>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H58" s="9">
         <v>13</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="Q58" s="2">
-        <f>IF($L58="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>IF($L58="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f>IF($L58="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <f>IF($L58="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="9">
-        <f>A58+1</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H59" s="9">
         <v>8</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="10" t="s">
-        <v>280</v>
-      </c>
+      <c r="J59" s="10"/>
       <c r="K59" s="2"/>
       <c r="L59" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="17">
@@ -4488,40 +4483,40 @@
       </c>
       <c r="O59" s="17"/>
       <c r="Q59" s="2">
-        <f>IF($L59="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>IF($L59="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S59" s="2">
-        <f>IF($L59="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f>IF($L59="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="9">
-        <f>A59+1</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H60" s="9">
         <v>9</v>
@@ -4530,46 +4525,46 @@
       <c r="J60" s="10"/>
       <c r="K60" s="2"/>
       <c r="L60" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="Q60" s="2">
-        <f>IF($L60="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>IF($L60="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f>IF($L60="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f>IF($L60="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="9">
-        <f>A60+1</f>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H61" s="9">
         <v>6</v>
@@ -4578,48 +4573,48 @@
       <c r="J61" s="10"/>
       <c r="K61" s="2"/>
       <c r="L61" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="Q61" s="2">
-        <f>IF($L61="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>IF($L61="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f>IF($L61="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <f>IF($L61="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="9">
-        <f>A61+1</f>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="H62" s="9">
         <v>1</v>
@@ -4628,11 +4623,11 @@
         <v>2015</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="17">
@@ -4640,39 +4635,39 @@
       </c>
       <c r="O62" s="17"/>
       <c r="Q62" s="2">
-        <f>IF($L62="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f>IF($L62="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <f>IF($L62="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f>IF($L62="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="9">
-        <f>A62+1</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="10">
         <v>1095</v>
@@ -4684,11 +4679,11 @@
         <v>2014</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="17">
@@ -4696,44 +4691,44 @@
       </c>
       <c r="O63" s="17"/>
       <c r="Q63" s="2">
-        <f>IF($L63="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f>IF($L63="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <f>IF($L63="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <f>IF($L63="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="9">
-        <f>A63+1</f>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" s="13">
         <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H64" s="9">
         <v>4</v>
@@ -4742,11 +4737,11 @@
         <v>2015</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="17">
@@ -4754,41 +4749,41 @@
       </c>
       <c r="O64" s="17"/>
       <c r="Q64" s="2">
-        <f>IF($L64="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f>IF($L64="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f>IF($L64="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <f>IF($L64="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="9">
-        <f>A64+1</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D65" s="11">
         <v>51</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G65" s="10">
         <v>1095</v>
@@ -4799,50 +4794,50 @@
       <c r="I65" s="9"/>
       <c r="J65" s="10"/>
       <c r="K65" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
       <c r="Q65" s="2">
-        <f>IF($L65="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R65" s="2">
-        <f>IF($L65="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f>IF($L65="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f>IF($L65="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="9">
-        <f>A65+1</f>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D66" s="11">
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="9">
@@ -4851,53 +4846,53 @@
       <c r="I66" s="9"/>
       <c r="J66" s="10"/>
       <c r="K66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="2">
-        <f>IF($L66="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <f>IF($L66="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S66" s="2">
-        <f>IF($L66="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f>IF($L66="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="9">
-        <f>A66+1</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H67" s="9">
         <v>2</v>
@@ -4905,53 +4900,53 @@
       <c r="I67" s="9"/>
       <c r="J67" s="10"/>
       <c r="K67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="Q67" s="2">
-        <f>IF($L67="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R67" s="2">
-        <f>IF($L67="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S67" s="2">
-        <f>IF($L67="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f>IF($L67="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="9">
-        <f>A67+1</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="F68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G68" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H68" s="9">
         <v>2</v>
@@ -4960,50 +4955,50 @@
       <c r="J68" s="10"/>
       <c r="K68" s="2"/>
       <c r="L68" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="Q68" s="2">
-        <f>IF($L68="Mod",1,0)</f>
+        <f t="shared" ref="Q68:Q99" si="10">IF($L68="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R68" s="2">
-        <f>IF($L68="Trad",1,0)</f>
+        <f t="shared" ref="R68:R99" si="11">IF($L68="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S68" s="2">
-        <f>IF($L68="Fixed",1,0)</f>
+        <f t="shared" ref="S68:S99" si="12">IF($L68="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <f>IF($L68="Multi",1,0)</f>
+        <f t="shared" ref="T68:T99" si="13">IF($L68="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="9">
-        <f>A68+1</f>
+        <f t="shared" ref="A69:A100" si="14">A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G69" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H69" s="9">
         <v>4</v>
@@ -5011,53 +5006,53 @@
       <c r="I69" s="9"/>
       <c r="J69" s="10"/>
       <c r="K69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="Q69" s="2">
-        <f>IF($L69="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R69" s="2">
-        <f>IF($L69="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S69" s="2">
-        <f>IF($L69="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f>IF($L69="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="9">
-        <f>A69+1</f>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H70" s="9">
         <v>3</v>
@@ -5065,53 +5060,53 @@
       <c r="I70" s="9"/>
       <c r="J70" s="10"/>
       <c r="K70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="Q70" s="2">
-        <f>IF($L70="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f>IF($L70="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f>IF($L70="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <f>IF($L70="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="9">
-        <f>A70+1</f>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="9">
         <v>2</v>
@@ -5119,51 +5114,51 @@
       <c r="I71" s="9"/>
       <c r="J71" s="10"/>
       <c r="K71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="Q71" s="2">
-        <f>IF($L71="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f>IF($L71="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S71" s="2">
-        <f>IF($L71="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f>IF($L71="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="9">
-        <f>A71+1</f>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" s="9">
         <v>1</v>
@@ -5171,50 +5166,50 @@
       <c r="I72" s="9"/>
       <c r="J72" s="10"/>
       <c r="K72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="Q72" s="2">
-        <f>IF($L72="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f>IF($L72="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S72" s="2">
-        <f>IF($L72="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f>IF($L72="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="9">
-        <f>A72+1</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="E73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="9">
@@ -5223,51 +5218,51 @@
       <c r="I73" s="9"/>
       <c r="J73" s="10"/>
       <c r="K73" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="Q73" s="2">
-        <f>IF($L73="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R73" s="2">
-        <f>IF($L73="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S73" s="2">
-        <f>IF($L73="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f>IF($L73="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="9">
-        <f>A73+1</f>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H74" s="9">
         <v>1</v>
@@ -5275,53 +5270,53 @@
       <c r="I74" s="9"/>
       <c r="J74" s="10"/>
       <c r="K74" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="Q74" s="2">
-        <f>IF($L74="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R74" s="2">
-        <f>IF($L74="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S74" s="2">
-        <f>IF($L74="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T74" s="2">
-        <f>IF($L74="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="9">
-        <f>A74+1</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="H75" s="9">
         <v>1</v>
@@ -5330,50 +5325,50 @@
       <c r="J75" s="10"/>
       <c r="K75" s="2"/>
       <c r="L75" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="Q75" s="2">
-        <f>IF($L75="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R75" s="2">
-        <f>IF($L75="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S75" s="2">
-        <f>IF($L75="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f>IF($L75="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="9">
-        <f>A75+1</f>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="E76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="H76" s="9">
         <v>1</v>
@@ -5382,50 +5377,50 @@
       <c r="J76" s="10"/>
       <c r="K76" s="2"/>
       <c r="L76" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="Q76" s="2">
-        <f>IF($L76="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R76" s="2">
-        <f>IF($L76="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <f>IF($L76="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f>IF($L76="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="9">
-        <f>A76+1</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
@@ -5434,50 +5429,50 @@
       <c r="J77" s="10"/>
       <c r="K77" s="2"/>
       <c r="L77" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="Q77" s="2">
-        <f>IF($L77="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R77" s="2">
-        <f>IF($L77="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S77" s="2">
-        <f>IF($L77="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f>IF($L77="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="9">
-        <f>A77+1</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="H78" s="9">
         <v>1</v>
@@ -5486,50 +5481,50 @@
       <c r="J78" s="10"/>
       <c r="K78" s="2"/>
       <c r="L78" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="Q78" s="2">
-        <f>IF($L78="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R78" s="2">
-        <f>IF($L78="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S78" s="2">
-        <f>IF($L78="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f>IF($L78="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="9">
-        <f>A78+1</f>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H79" s="9">
         <v>1</v>
@@ -5538,50 +5533,50 @@
       <c r="J79" s="10"/>
       <c r="K79" s="2"/>
       <c r="L79" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="Q79" s="2">
-        <f>IF($L79="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R79" s="2">
-        <f>IF($L79="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S79" s="2">
-        <f>IF($L79="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f>IF($L79="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="9">
-        <f>A79+1</f>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H80" s="9">
         <v>1</v>
@@ -5590,50 +5585,50 @@
       <c r="J80" s="10"/>
       <c r="K80" s="2"/>
       <c r="L80" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="Q80" s="2">
-        <f>IF($L80="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R80" s="2">
-        <f>IF($L80="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f>IF($L80="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f>IF($L80="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="9">
-        <f>A80+1</f>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
@@ -5641,53 +5636,53 @@
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
       <c r="K81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="Q81" s="2">
-        <f>IF($L81="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R81" s="2">
-        <f>IF($L81="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <f>IF($L81="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f>IF($L81="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="9">
-        <f>A81+1</f>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H82" s="9">
         <v>1</v>
@@ -5696,50 +5691,50 @@
       <c r="J82" s="10"/>
       <c r="K82" s="2"/>
       <c r="L82" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="Q82" s="2">
-        <f>IF($L82="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R82" s="2">
-        <f>IF($L82="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S82" s="2">
-        <f>IF($L82="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <f>IF($L82="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="9">
-        <f>A82+1</f>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H83" s="9">
         <v>1</v>
@@ -5748,50 +5743,50 @@
       <c r="J83" s="10"/>
       <c r="K83" s="2"/>
       <c r="L83" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="Q83" s="2">
-        <f>IF($L83="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R83" s="2">
-        <f>IF($L83="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S83" s="2">
-        <f>IF($L83="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <f>IF($L83="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="9">
-        <f>A83+1</f>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H84" s="9">
         <v>1</v>
@@ -5800,50 +5795,50 @@
       <c r="J84" s="10"/>
       <c r="K84" s="2"/>
       <c r="L84" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="Q84" s="2">
-        <f>IF($L84="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R84" s="2">
-        <f>IF($L84="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <f>IF($L84="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T84" s="2">
-        <f>IF($L84="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="9">
-        <f>A84+1</f>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H85" s="9">
         <v>1</v>
@@ -5852,50 +5847,50 @@
       <c r="J85" s="10"/>
       <c r="K85" s="2"/>
       <c r="L85" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
       <c r="Q85" s="2">
-        <f>IF($L85="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R85" s="2">
-        <f>IF($L85="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S85" s="2">
-        <f>IF($L85="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T85" s="2">
-        <f>IF($L85="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="9">
-        <f>A85+1</f>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H86" s="9">
         <v>1</v>
@@ -5904,50 +5899,50 @@
       <c r="J86" s="10"/>
       <c r="K86" s="2"/>
       <c r="L86" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="Q86" s="2">
-        <f>IF($L86="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R86" s="2">
-        <f>IF($L86="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <f>IF($L86="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <f>IF($L86="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="9">
-        <f>A86+1</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="9">
         <v>1</v>
@@ -5956,50 +5951,50 @@
       <c r="J87" s="10"/>
       <c r="K87" s="2"/>
       <c r="L87" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="Q87" s="2">
-        <f>IF($L87="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R87" s="2">
-        <f>IF($L87="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S87" s="2">
-        <f>IF($L87="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f>IF($L87="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="9">
-        <f>A87+1</f>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H88" s="9">
         <v>1</v>
@@ -6008,50 +6003,50 @@
       <c r="J88" s="10"/>
       <c r="K88" s="2"/>
       <c r="L88" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="Q88" s="2">
-        <f>IF($L88="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R88" s="2">
-        <f>IF($L88="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S88" s="2">
-        <f>IF($L88="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T88" s="2">
-        <f>IF($L88="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="9">
-        <f>A88+1</f>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H89" s="9">
         <v>1</v>
@@ -6060,50 +6055,50 @@
       <c r="J89" s="10"/>
       <c r="K89" s="2"/>
       <c r="L89" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="Q89" s="2">
-        <f>IF($L89="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R89" s="2">
-        <f>IF($L89="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <f>IF($L89="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <f>IF($L89="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="9">
-        <f>A89+1</f>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -6112,50 +6107,50 @@
       <c r="J90" s="10"/>
       <c r="K90" s="2"/>
       <c r="L90" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="Q90" s="2">
-        <f>IF($L90="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R90" s="2">
-        <f>IF($L90="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S90" s="2">
-        <f>IF($L90="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T90" s="2">
-        <f>IF($L90="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="9">
-        <f>A90+1</f>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H91" s="9">
         <v>1</v>
@@ -6164,50 +6159,50 @@
       <c r="J91" s="10"/>
       <c r="K91" s="2"/>
       <c r="L91" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
       <c r="Q91" s="2">
-        <f>IF($L91="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R91" s="2">
-        <f>IF($L91="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <f>IF($L91="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f>IF($L91="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="9">
-        <f>A91+1</f>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H92" s="9">
         <v>1</v>
@@ -6216,47 +6211,47 @@
       <c r="J92" s="10"/>
       <c r="K92" s="2"/>
       <c r="L92" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="Q92" s="2">
-        <f>IF($L92="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R92" s="2">
-        <f>IF($L92="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <f>IF($L92="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f>IF($L92="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="9">
-        <f>A92+1</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="9">
@@ -6265,53 +6260,53 @@
       <c r="I93" s="9"/>
       <c r="J93" s="10"/>
       <c r="K93" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="Q93" s="2">
-        <f>IF($L93="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R93" s="2">
-        <f>IF($L93="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <f>IF($L93="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f>IF($L93="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="9">
-        <f>A93+1</f>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94" s="9">
         <v>1</v>
@@ -6320,50 +6315,50 @@
       <c r="J94" s="10"/>
       <c r="K94" s="2"/>
       <c r="L94" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="Q94" s="2">
-        <f>IF($L94="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R94" s="2">
-        <f>IF($L94="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <f>IF($L94="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T94" s="2">
-        <f>IF($L94="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="9">
-        <f>A94+1</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H95" s="9">
         <v>1</v>
@@ -6372,50 +6367,50 @@
       <c r="J95" s="10"/>
       <c r="K95" s="2"/>
       <c r="L95" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="Q95" s="2">
-        <f>IF($L95="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R95" s="2">
-        <f>IF($L95="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <f>IF($L95="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f>IF($L95="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="9">
-        <f>A95+1</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H96" s="9">
         <v>1</v>
@@ -6424,50 +6419,50 @@
       <c r="J96" s="10"/>
       <c r="K96" s="2"/>
       <c r="L96" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="Q96" s="2">
-        <f>IF($L96="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R96" s="2">
-        <f>IF($L96="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <f>IF($L96="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T96" s="2">
-        <f>IF($L96="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="9">
-        <f>A96+1</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
@@ -6476,50 +6471,50 @@
       <c r="J97" s="10"/>
       <c r="K97" s="2"/>
       <c r="L97" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="Q97" s="2">
-        <f>IF($L97="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R97" s="2">
-        <f>IF($L97="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <f>IF($L97="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f>IF($L97="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="9">
-        <f>A97+1</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H98" s="9">
         <v>1</v>
@@ -6528,50 +6523,50 @@
       <c r="J98" s="10"/>
       <c r="K98" s="2"/>
       <c r="L98" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="Q98" s="2">
-        <f>IF($L98="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R98" s="2">
-        <f>IF($L98="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <f>IF($L98="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T98" s="2">
-        <f>IF($L98="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="9">
-        <f>A98+1</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H99" s="9">
         <v>1</v>
@@ -6580,50 +6575,50 @@
       <c r="J99" s="10"/>
       <c r="K99" s="2"/>
       <c r="L99" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="Q99" s="2">
-        <f>IF($L99="Mod",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R99" s="2">
-        <f>IF($L99="Trad",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <f>IF($L99="Fixed",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f>IF($L99="Multi",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="9">
-        <f>A99+1</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="D100" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="H100" s="9">
         <v>1</v>
@@ -6632,50 +6627,50 @@
       <c r="J100" s="10"/>
       <c r="K100" s="2"/>
       <c r="L100" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="Q100" s="2">
-        <f>IF($L100="Mod",1,0)</f>
+        <f t="shared" ref="Q100:Q119" si="15">IF($L100="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R100" s="2">
-        <f>IF($L100="Trad",1,0)</f>
+        <f t="shared" ref="R100:R119" si="16">IF($L100="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <f>IF($L100="Fixed",1,0)</f>
+        <f t="shared" ref="S100:S119" si="17">IF($L100="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T100" s="2">
-        <f>IF($L100="Multi",1,0)</f>
+        <f t="shared" ref="T100:T119" si="18">IF($L100="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="9">
-        <f>A100+1</f>
+        <f t="shared" ref="A101:A119" si="19">A100+1</f>
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H101" s="9">
         <v>1</v>
@@ -6684,50 +6679,50 @@
       <c r="J101" s="10"/>
       <c r="K101" s="2"/>
       <c r="L101" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="Q101" s="2">
-        <f>IF($L101="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R101" s="2">
-        <f>IF($L101="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <f>IF($L101="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f>IF($L101="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="9">
-        <f>A101+1</f>
+        <f t="shared" si="19"/>
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="9">
         <v>1</v>
@@ -6736,48 +6731,48 @@
       <c r="J102" s="10"/>
       <c r="K102" s="2"/>
       <c r="L102" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="Q102" s="2">
-        <f>IF($L102="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R102" s="2">
-        <f>IF($L102="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S102" s="2">
-        <f>IF($L102="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T102" s="2">
-        <f>IF($L102="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="9">
-        <f>A102+1</f>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H103" s="9">
         <v>3</v>
@@ -6785,48 +6780,48 @@
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
       <c r="K103" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="Q103" s="2">
-        <f>IF($L103="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R103" s="2">
-        <f>IF($L103="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S103" s="2">
-        <f>IF($L103="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f>IF($L103="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="9">
-        <f>A103+1</f>
+        <f t="shared" si="19"/>
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9">
@@ -6836,45 +6831,45 @@
       <c r="J104" s="10"/>
       <c r="K104" s="2"/>
       <c r="L104" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="Q104" s="2">
-        <f>IF($L104="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R104" s="2">
-        <f>IF($L104="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S104" s="2">
-        <f>IF($L104="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f>IF($L104="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="9">
-        <f>A104+1</f>
+        <f t="shared" si="19"/>
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="9">
@@ -6884,45 +6879,45 @@
       <c r="J105" s="10"/>
       <c r="K105" s="2"/>
       <c r="L105" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M105" s="15"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="Q105" s="2">
-        <f>IF($L105="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R105" s="2">
-        <f>IF($L105="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S105" s="2">
-        <f>IF($L105="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T105" s="2">
-        <f>IF($L105="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="9">
-        <f>A105+1</f>
+        <f t="shared" si="19"/>
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="9">
@@ -6932,45 +6927,45 @@
       <c r="J106" s="10"/>
       <c r="K106" s="2"/>
       <c r="L106" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M106" s="15"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="Q106" s="2">
-        <f>IF($L106="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R106" s="2">
-        <f>IF($L106="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <f>IF($L106="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T106" s="2">
-        <f>IF($L106="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="9">
-        <f>A106+1</f>
+        <f t="shared" si="19"/>
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="9">
@@ -6980,45 +6975,45 @@
       <c r="J107" s="10"/>
       <c r="K107" s="2"/>
       <c r="L107" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M107" s="15"/>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="Q107" s="2">
-        <f>IF($L107="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R107" s="2">
-        <f>IF($L107="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <f>IF($L107="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T107" s="2">
-        <f>IF($L107="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="9">
-        <f>A107+1</f>
+        <f t="shared" si="19"/>
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="9">
@@ -7028,45 +7023,45 @@
       <c r="J108" s="10"/>
       <c r="K108" s="2"/>
       <c r="L108" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M108" s="15"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="Q108" s="2">
-        <f>IF($L108="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R108" s="2">
-        <f>IF($L108="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S108" s="2">
-        <f>IF($L108="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f>IF($L108="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="9">
-        <f>A108+1</f>
+        <f t="shared" si="19"/>
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="9">
@@ -7076,45 +7071,45 @@
       <c r="J109" s="10"/>
       <c r="K109" s="2"/>
       <c r="L109" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M109" s="15"/>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="Q109" s="2">
-        <f>IF($L109="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R109" s="2">
-        <f>IF($L109="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S109" s="2">
-        <f>IF($L109="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T109" s="2">
-        <f>IF($L109="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="9">
-        <f>A109+1</f>
+        <f t="shared" si="19"/>
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="9">
@@ -7124,45 +7119,45 @@
       <c r="J110" s="10"/>
       <c r="K110" s="2"/>
       <c r="L110" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M110" s="15"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="Q110" s="2">
-        <f>IF($L110="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R110" s="2">
-        <f>IF($L110="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S110" s="2">
-        <f>IF($L110="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T110" s="2">
-        <f>IF($L110="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="9">
-        <f>A110+1</f>
+        <f t="shared" si="19"/>
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="9">
@@ -7172,45 +7167,45 @@
       <c r="J111" s="10"/>
       <c r="K111" s="2"/>
       <c r="L111" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M111" s="15"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="Q111" s="2">
-        <f>IF($L111="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R111" s="2">
-        <f>IF($L111="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S111" s="2">
-        <f>IF($L111="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T111" s="2">
-        <f>IF($L111="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="9">
-        <f>A111+1</f>
+        <f t="shared" si="19"/>
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="9">
@@ -7220,45 +7215,45 @@
       <c r="J112" s="10"/>
       <c r="K112" s="2"/>
       <c r="L112" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M112" s="15"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="Q112" s="2">
-        <f>IF($L112="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R112" s="2">
-        <f>IF($L112="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S112" s="2">
-        <f>IF($L112="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T112" s="2">
-        <f>IF($L112="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="9">
-        <f>A112+1</f>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="9">
@@ -7268,45 +7263,45 @@
       <c r="J113" s="10"/>
       <c r="K113" s="2"/>
       <c r="L113" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M113" s="15"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="Q113" s="2">
-        <f>IF($L113="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R113" s="2">
-        <f>IF($L113="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S113" s="2">
-        <f>IF($L113="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f>IF($L113="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="9">
-        <f>A113+1</f>
+        <f t="shared" si="19"/>
         <v>111</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="23">
@@ -7316,45 +7311,45 @@
       <c r="J114" s="21"/>
       <c r="K114" s="20"/>
       <c r="L114" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M114" s="15"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="Q114" s="2">
-        <f>IF($L114="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R114" s="2">
-        <f>IF($L114="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S114" s="2">
-        <f>IF($L114="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T114" s="2">
-        <f>IF($L114="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="19">
-        <f>A114+1</f>
+        <f t="shared" si="19"/>
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="9">
@@ -7364,45 +7359,45 @@
       <c r="J115" s="10"/>
       <c r="K115" s="2"/>
       <c r="L115" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M115" s="15"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="Q115" s="2">
-        <f>IF($L115="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R115" s="2">
-        <f>IF($L115="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S115" s="2">
-        <f>IF($L115="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T115" s="2">
-        <f>IF($L115="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="9">
-        <f>A115+1</f>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="9">
@@ -7412,45 +7407,45 @@
       <c r="J116" s="10"/>
       <c r="K116" s="2"/>
       <c r="L116" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M116" s="15"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
       <c r="Q116" s="2">
-        <f>IF($L116="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R116" s="2">
-        <f>IF($L116="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S116" s="2">
-        <f>IF($L116="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T116" s="2">
-        <f>IF($L116="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="9">
-        <f>A116+1</f>
+        <f t="shared" si="19"/>
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="9">
@@ -7460,45 +7455,45 @@
       <c r="J117" s="10"/>
       <c r="K117" s="2"/>
       <c r="L117" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M117" s="15"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
       <c r="Q117" s="2">
-        <f>IF($L117="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R117" s="2">
-        <f>IF($L117="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S117" s="2">
-        <f>IF($L117="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T117" s="2">
-        <f>IF($L117="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="9">
-        <f>A117+1</f>
+        <f t="shared" si="19"/>
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="9">
@@ -7508,79 +7503,79 @@
       <c r="J118" s="10"/>
       <c r="K118" s="2"/>
       <c r="L118" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M118" s="15"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
       <c r="Q118" s="2">
-        <f>IF($L118="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R118" s="2">
-        <f>IF($L118="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S118" s="2">
-        <f>IF($L118="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T118" s="2">
-        <f>IF($L118="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="9">
-        <f>A118+1</f>
+        <f t="shared" si="19"/>
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="E119" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="H119" s="9">
         <v>1</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M119" s="15"/>
       <c r="N119" s="18"/>
       <c r="O119" s="18"/>
       <c r="Q119" s="2">
-        <f>IF($L119="Mod",1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R119" s="2">
-        <f>IF($L119="Trad",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S119" s="2">
-        <f>IF($L119="Fixed",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T119" s="2">
-        <f>IF($L119="Multi",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7593,7 +7588,7 @@
     </row>
     <row r="121" spans="1:20">
       <c r="B121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C121" s="11">
         <f>Q125</f>
@@ -7606,7 +7601,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="B122" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" s="11">
         <f>S125</f>
@@ -7619,7 +7614,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C123" s="11">
         <f>R125</f>
@@ -7632,7 +7627,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="B124" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C124" s="14">
         <f>T125</f>
@@ -7645,7 +7640,7 @@
     </row>
     <row r="125" spans="1:20">
       <c r="B125" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" s="11">
         <f>SUM(C121:C124)</f>

--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$127</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="306">
   <si>
     <t>GEC Northfield</t>
   </si>
@@ -912,10 +912,31 @@
     <t>154-CM</t>
   </si>
   <si>
-    <t>Custom, OAL 8.125, Blade 3.875, 8.6 oz</t>
-  </si>
-  <si>
     <t>Maker</t>
+  </si>
+  <si>
+    <t>4/4/20, Custom, OAL 8.125, Blade 3.875, 8.6 oz</t>
+  </si>
+  <si>
+    <t>ESEE-3</t>
+  </si>
+  <si>
+    <t>Randall Made</t>
+  </si>
+  <si>
+    <t>25-5</t>
+  </si>
+  <si>
+    <t>Model 25-5</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Bird's Eye/Leather</t>
+  </si>
+  <si>
+    <t>Drop point</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1051,7 +1072,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1382,10 +1402,10 @@
     <col min="7" max="7" width="15" style="5" customWidth="1"/>
     <col min="8" max="9" width="7.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" style="4" customWidth="1"/>
     <col min="12" max="13" width="9.85546875" style="7" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="16" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="4" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="16" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -1400,7 +1420,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="8">
-        <v>43959</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1408,7 +1428,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
@@ -1495,25 +1515,25 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q35" si="0">IF($L4="Mod",1,0)</f>
+        <f>IF($L4="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R35" si="1">IF($L4="Trad",1,0)</f>
+        <f>IF($L4="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S35" si="2">IF($L4="Fixed",1,0)</f>
+        <f>IF($L4="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T35" si="3">IF($L4="Multi",1,0)</f>
+        <f>IF($L4="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9">
-        <f t="shared" ref="A5:A36" si="4">A4+1</f>
+        <f t="shared" ref="A5:A36" si="0">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1549,25 +1569,25 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L5="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L5="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L5="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L5="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1599,25 +1619,25 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L6="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L6="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L6="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L6="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1649,25 +1669,25 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L7="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L7="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L7="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L7="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1699,25 +1719,25 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L8="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L8="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L8="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L8="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1755,25 +1775,25 @@
       </c>
       <c r="O9" s="17"/>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L9="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L9="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L9="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L9="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1813,25 +1833,25 @@
       </c>
       <c r="O10" s="17"/>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L10="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L10="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L10="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L10="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1865,25 +1885,25 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L11="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L11="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L11="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L11="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1917,25 +1937,25 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L12="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L12="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L12="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L12="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1969,25 +1989,25 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L13="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L13="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L13="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L13="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2021,25 +2041,25 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L14="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L14="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L14="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L14="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2073,25 +2093,25 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L15="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L15="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L15="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L15="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2125,25 +2145,25 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L16="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L16="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L16="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L16="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2177,25 +2197,25 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L17="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L17="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L17="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L17="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2231,25 +2251,25 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="Q18" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L18="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L18="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L18="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L18="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2285,25 +2305,25 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="Q19" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L19="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L19="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L19="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L19="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2339,25 +2359,25 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="Q20" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L20="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L20="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L20="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L20="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2391,25 +2411,25 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="Q21" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L21="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L21="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L21="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L21="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2447,25 +2467,25 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="Q22" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L22="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L22="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L22="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L22="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2503,25 +2523,25 @@
       </c>
       <c r="O23" s="17"/>
       <c r="Q23" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L23="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L23="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L23="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L23="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2559,25 +2579,25 @@
       </c>
       <c r="O24" s="17"/>
       <c r="Q24" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L24="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L24="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L24="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L24="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2617,25 +2637,25 @@
       </c>
       <c r="O25" s="17"/>
       <c r="Q25" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L25="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L25="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L25="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L25="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2677,25 +2697,25 @@
       </c>
       <c r="O26" s="17"/>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L26="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L26="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L26="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L26="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2737,25 +2757,25 @@
         <v>400</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L27="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L27="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L27="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L27="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2787,25 +2807,25 @@
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="Q28" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L28="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L28="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L28="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L28="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2835,25 +2855,25 @@
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="Q29" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L29="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L29="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L29="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L29="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2880,34 +2900,36 @@
         <v>218</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>186</v>
       </c>
       <c r="M30" s="15"/>
-      <c r="N30" s="17"/>
+      <c r="N30" s="17">
+        <v>358.16</v>
+      </c>
       <c r="O30" s="17"/>
       <c r="Q30" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L30="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L30="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L30="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L30="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2941,25 +2963,25 @@
       </c>
       <c r="O31" s="17"/>
       <c r="Q31" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L31="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L31="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L31="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L31="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2989,32 +3011,32 @@
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="Q32" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L32="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L32="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L32="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L32="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="D33" s="11">
         <v>6</v>
@@ -3022,7 +3044,9 @@
       <c r="E33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G33" s="10">
         <v>1095</v>
       </c>
@@ -3036,37 +3060,41 @@
         <v>186</v>
       </c>
       <c r="M33" s="15"/>
-      <c r="N33" s="17"/>
+      <c r="N33" s="17">
+        <v>121.75</v>
+      </c>
       <c r="O33" s="17"/>
       <c r="Q33" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L33="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L33="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L33="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L33="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="D34" s="11">
+        <v>6</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>126</v>
       </c>
@@ -3087,42 +3115,40 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="Q34" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L34="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($L34="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="2"/>
+        <f>IF($L34="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L34="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>228</v>
+        <v>126</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10">
+        <v>1095</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -3131,47 +3157,45 @@
       <c r="J35" s="10"/>
       <c r="K35" s="2"/>
       <c r="L35" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M35" s="15"/>
-      <c r="N35" s="17">
-        <v>144</v>
-      </c>
+      <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="Q35" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($L35="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($L35="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF($L35="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="3"/>
+        <f>IF($L35="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>228</v>
@@ -3187,40 +3211,40 @@
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="17">
-        <v>91.95</v>
+        <v>144</v>
       </c>
       <c r="O36" s="17"/>
       <c r="Q36" s="2">
-        <f t="shared" ref="Q36:Q67" si="5">IF($L36="Mod",1,0)</f>
+        <f>IF($L36="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" ref="R36:R67" si="6">IF($L36="Trad",1,0)</f>
+        <f>IF($L36="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" ref="S36:S67" si="7">IF($L36="Fixed",1,0)</f>
+        <f>IF($L36="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" ref="T36:T67" si="8">IF($L36="Multi",1,0)</f>
+        <f>IF($L36="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="9">
-        <f t="shared" ref="A37:A68" si="9">A36+1</f>
+        <f t="shared" ref="A37:A68" si="1">A36+1</f>
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>205</v>
@@ -3239,113 +3263,107 @@
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="17">
-        <v>134.94999999999999</v>
+        <v>91.95</v>
       </c>
       <c r="O37" s="17"/>
       <c r="Q37" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L37="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L37="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L37="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L37="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="11">
-        <v>772115</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1095</v>
+        <v>205</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="10" t="s">
-        <v>213</v>
-      </c>
+      <c r="J38" s="10"/>
       <c r="K38" s="2"/>
       <c r="L38" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="17">
-        <v>92.25</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="O38" s="17"/>
       <c r="Q38" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L38="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L38="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L38="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L38="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="D39" s="11">
-        <v>541214</v>
+        <v>772115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G39" s="10">
         <v>1095</v>
       </c>
       <c r="H39" s="9">
-        <v>2</v>
-      </c>
-      <c r="I39" s="9">
-        <v>2014</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="9" t="s">
@@ -3353,44 +3371,46 @@
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="17">
-        <v>110.57</v>
+        <v>92.25</v>
       </c>
       <c r="O39" s="17"/>
       <c r="Q39" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L39="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L39="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L39="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L39="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="D40" s="11">
-        <v>661214</v>
+        <v>541214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="G40" s="10">
         <v>1095</v>
       </c>
@@ -3401,7 +3421,7 @@
         <v>2014</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="9" t="s">
@@ -3409,42 +3429,42 @@
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="17">
-        <v>199.95</v>
+        <v>110.57</v>
       </c>
       <c r="O40" s="17"/>
       <c r="Q40" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L40="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L40="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L40="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L40="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D41" s="11">
-        <v>725213</v>
+        <v>661214</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="10">
@@ -3457,7 +3477,7 @@
         <v>2014</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="9" t="s">
@@ -3465,97 +3485,95 @@
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="17">
-        <v>128.15</v>
+        <v>199.95</v>
       </c>
       <c r="O41" s="17"/>
       <c r="Q41" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L41="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L41="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L41="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L41="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D42" s="11">
-        <v>488214</v>
+        <v>725213</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="10">
         <v>1095</v>
       </c>
       <c r="H42" s="9">
         <v>2</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <v>2014</v>
+      </c>
       <c r="J42" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="17">
-        <v>89.75</v>
+        <v>128.15</v>
       </c>
       <c r="O42" s="17"/>
       <c r="Q42" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L42="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L42="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L42="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L42="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D43" s="11">
-        <v>771115</v>
+        <v>488214</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>195</v>
@@ -3567,41 +3585,43 @@
         <v>1095</v>
       </c>
       <c r="H43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="L43" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="17">
-        <v>83.55</v>
+        <v>89.75</v>
       </c>
       <c r="O43" s="17"/>
       <c r="Q43" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L43="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L43="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L43="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L43="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3611,7 +3631,7 @@
         <v>207</v>
       </c>
       <c r="D44" s="11">
-        <v>771214</v>
+        <v>771115</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>195</v>
@@ -3623,113 +3643,109 @@
         <v>1095</v>
       </c>
       <c r="H44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="17">
-        <v>94.95</v>
+        <v>83.55</v>
       </c>
       <c r="O44" s="17"/>
       <c r="Q44" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L44="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L44="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L44="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L44="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D45" s="11">
-        <v>470114</v>
+        <v>771214</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G45" s="10">
         <v>1095</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
-      </c>
-      <c r="I45" s="9">
-        <v>2014</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="17">
-        <v>126.36</v>
-      </c>
-      <c r="O45" s="17">
-        <v>155</v>
-      </c>
+        <v>94.95</v>
+      </c>
+      <c r="O45" s="17"/>
       <c r="Q45" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L45="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L45="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L45="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L45="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="D46" s="11">
-        <v>571312</v>
+        <v>470114</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
@@ -3739,119 +3755,119 @@
         <v>1095</v>
       </c>
       <c r="H46" s="9">
-        <v>3</v>
-      </c>
-      <c r="I46" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2014</v>
+      </c>
       <c r="J46" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M46" s="15"/>
-      <c r="N46" s="17"/>
+      <c r="N46" s="17">
+        <v>126.36</v>
+      </c>
       <c r="O46" s="17">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L46="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L46="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L46="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L46="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="D47" s="11">
-        <v>748117</v>
+        <v>571312</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="10">
         <v>1095</v>
       </c>
       <c r="H47" s="9">
-        <v>1</v>
-      </c>
-      <c r="I47" s="9">
-        <v>2017</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" s="9"/>
       <c r="J47" s="10" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M47" s="15"/>
-      <c r="N47" s="17">
-        <v>90.99</v>
-      </c>
-      <c r="O47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17">
+        <v>140</v>
+      </c>
       <c r="Q47" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L47="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L47="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L47="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L47="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D48" s="11">
-        <v>971119</v>
+        <v>748117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="G48" s="10">
         <v>1095</v>
@@ -3860,58 +3876,58 @@
         <v>1</v>
       </c>
       <c r="I48" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>200</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="17">
-        <v>109.75</v>
+        <v>90.99</v>
       </c>
       <c r="O48" s="17"/>
       <c r="Q48" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L48="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L48="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L48="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L48="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D49" s="11">
-        <v>152118</v>
+        <v>971119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="G49" s="10">
         <v>1095</v>
@@ -3920,58 +3936,58 @@
         <v>1</v>
       </c>
       <c r="I49" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="17">
-        <v>75.2</v>
+        <v>109.75</v>
       </c>
       <c r="O49" s="17"/>
       <c r="Q49" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L49="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L49="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L49="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L49="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="D50" s="11">
-        <v>151116</v>
+        <v>152118</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G50" s="10">
         <v>1095</v>
@@ -3980,42 +3996,42 @@
         <v>1</v>
       </c>
       <c r="I50" s="9">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="17">
-        <v>124.95</v>
+        <v>75.2</v>
       </c>
       <c r="O50" s="17"/>
       <c r="Q50" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L50="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L50="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L50="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L50="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4025,57 +4041,57 @@
         <v>10</v>
       </c>
       <c r="D51" s="11">
-        <v>151213</v>
+        <v>151116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="G51" s="10">
         <v>1095</v>
       </c>
       <c r="H51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="9">
         <v>2014</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="17">
-        <v>105.53</v>
+        <v>124.95</v>
       </c>
       <c r="O51" s="17"/>
       <c r="Q51" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L51="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L51="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L51="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L51="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4085,13 +4101,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="11">
-        <v>151214</v>
+        <v>151213</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="G52" s="10">
         <v>1095</v>
@@ -4103,39 +4119,39 @@
         <v>2014</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="17">
-        <v>119.95</v>
+        <v>105.53</v>
       </c>
       <c r="O52" s="17"/>
       <c r="Q52" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L52="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L52="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L52="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L52="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4148,10 +4164,10 @@
         <v>151214</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="G53" s="10">
         <v>1095</v>
@@ -4159,12 +4175,14 @@
       <c r="H53" s="9">
         <v>2</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9">
+        <v>2014</v>
+      </c>
       <c r="J53" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>187</v>
@@ -4175,38 +4193,38 @@
       </c>
       <c r="O53" s="17"/>
       <c r="Q53" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L53="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L53="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L53="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L53="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D54" s="11">
-        <v>981316</v>
+        <v>151214</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>39</v>
@@ -4215,106 +4233,116 @@
         <v>1095</v>
       </c>
       <c r="H54" s="9">
-        <v>3</v>
-      </c>
-      <c r="I54" s="9">
-        <v>2016</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" s="9"/>
       <c r="J54" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L54" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="17">
-        <v>141.53</v>
+        <v>119.95</v>
       </c>
       <c r="O54" s="17"/>
       <c r="Q54" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L54="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF($L54="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>IF($L54="Fixed",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L54="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="2">
-        <v>1095</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="D55" s="11">
+        <v>981316</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G55" s="10">
         <v>1095</v>
       </c>
       <c r="H55" s="9">
-        <v>1</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="I55" s="9">
+        <v>2016</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="9" t="s">
         <v>186</v>
       </c>
       <c r="M55" s="15"/>
-      <c r="N55" s="17"/>
+      <c r="N55" s="17">
+        <v>141.53</v>
+      </c>
       <c r="O55" s="17"/>
       <c r="Q55" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L55="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L55="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L55="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L55="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="2" t="s">
-        <v>52</v>
+      <c r="E56" s="2">
+        <v>1095</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="10" t="s">
-        <v>52</v>
+      <c r="G56" s="10">
+        <v>1095</v>
       </c>
       <c r="H56" s="9">
         <v>1</v>
@@ -4329,40 +4357,40 @@
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="Q56" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L56="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L56="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L56="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L56="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="10" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="H57" s="9">
         <v>1</v>
@@ -4377,141 +4405,139 @@
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="Q57" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L57="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L57="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L57="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L57="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="10" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="H58" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="J58" s="10"/>
       <c r="K58" s="2"/>
       <c r="L58" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="Q58" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L58="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L58="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF($L58="Fixed",1,0)</f>
+        <v>1</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF($L58="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>278</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D59" s="11"/>
       <c r="E59" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>100</v>
       </c>
       <c r="H59" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="9" t="s">
         <v>184</v>
       </c>
       <c r="M59" s="15"/>
-      <c r="N59" s="17">
-        <v>49</v>
-      </c>
+      <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="Q59" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L59="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L59="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L59="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L59="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F60" s="2" t="s">
         <v>127</v>
       </c>
@@ -4519,7 +4545,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="10"/>
@@ -4528,46 +4554,48 @@
         <v>184</v>
       </c>
       <c r="M60" s="15"/>
-      <c r="N60" s="17"/>
+      <c r="N60" s="17">
+        <v>49</v>
+      </c>
       <c r="O60" s="17"/>
       <c r="Q60" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L60="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L60="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L60="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L60="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="10"/>
@@ -4579,107 +4607,99 @@
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="Q61" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L61="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L61="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L61="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L61="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="H62" s="9">
-        <v>1</v>
-      </c>
-      <c r="I62" s="9">
-        <v>2015</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>237</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="2"/>
       <c r="L62" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M62" s="15"/>
-      <c r="N62" s="17">
-        <v>129.94999999999999</v>
-      </c>
+      <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="Q62" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L62="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF($L62="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L62="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF($L62="Multi",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="10">
-        <v>1095</v>
+        <v>39</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="H63" s="9">
         <v>1</v>
       </c>
       <c r="I63" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="9" t="s">
@@ -4687,57 +4707,55 @@
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="17">
-        <v>119.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="O63" s="17"/>
       <c r="Q63" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L63="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L63="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L63="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L63="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" s="13">
-        <v>99</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="11"/>
       <c r="E64" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1095</v>
       </c>
       <c r="H64" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="9" t="s">
@@ -4745,83 +4763,87 @@
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="17">
-        <v>105.95</v>
+        <v>119.95</v>
       </c>
       <c r="O64" s="17"/>
       <c r="Q64" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L64="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L64="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L64="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L64="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="11">
-        <v>51</v>
+      <c r="C65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="13">
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G65" s="10">
-        <v>1095</v>
+      <c r="G65" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="H65" s="9">
-        <v>1</v>
-      </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I65" s="9">
+        <v>2015</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M65" s="15"/>
-      <c r="N65" s="17"/>
+      <c r="N65" s="17">
+        <v>105.95</v>
+      </c>
       <c r="O65" s="17"/>
       <c r="Q65" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L65="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L65="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L65="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L65="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4839,14 +4861,16 @@
       <c r="F66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="10">
+        <v>1095</v>
+      </c>
       <c r="H66" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="10"/>
       <c r="K66" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>187</v>
@@ -4855,52 +4879,50 @@
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L66="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L66="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L66="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L66="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="D67" s="11">
+        <v>51</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>52</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="9">
         <v>2</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="10"/>
       <c r="K67" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>187</v>
@@ -4909,104 +4931,103 @@
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="Q67" s="2">
-        <f t="shared" si="5"/>
+        <f>IF($L67="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" si="6"/>
+        <f>IF($L67="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="7"/>
+        <f>IF($L67="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="8"/>
+        <f>IF($L67="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="H68" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="N68" s="17">
+        <v>675</v>
+      </c>
       <c r="O68" s="17"/>
       <c r="Q68" s="2">
-        <f t="shared" ref="Q68:Q99" si="10">IF($L68="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" ref="R68:R99" si="11">IF($L68="Trad",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" ref="S68:S99" si="12">IF($L68="Fixed",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" ref="T68:T99" si="13">IF($L68="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="9">
-        <f t="shared" ref="A69:A100" si="14">A68+1</f>
+        <f t="shared" ref="A69:A100" si="2">A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H69" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="10"/>
       <c r="K69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>187</v>
@@ -5015,53 +5036,51 @@
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="Q69" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L69="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L69="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L69="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L69="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H70" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="K70" s="2"/>
       <c r="L70" s="9" t="s">
         <v>187</v>
       </c>
@@ -5069,52 +5088,52 @@
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="Q70" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L70="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L70="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L70="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L70="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H71" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="10"/>
       <c r="K71" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>187</v>
@@ -5123,50 +5142,52 @@
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="Q71" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L71="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L71="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L71="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L71="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="E72" s="2" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H72" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="10"/>
       <c r="K72" s="2" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>187</v>
@@ -5175,94 +5196,96 @@
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="Q72" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L72="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L72="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L72="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L72="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G73" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H73" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="10"/>
       <c r="K73" s="2" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="Q73" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>IF($L73="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF($L73="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L73="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L73="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="H74" s="9">
         <v>1</v>
@@ -5270,60 +5293,60 @@
       <c r="I74" s="9"/>
       <c r="J74" s="10"/>
       <c r="K74" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="Q74" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>IF($L74="Mod",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF($L74="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L74="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T74" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L74="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>151</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="10"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="L75" s="9" t="s">
         <v>185</v>
       </c>
@@ -5331,51 +5354,51 @@
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="Q75" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L75="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L75="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L75="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L75="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>81</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D76" s="11"/>
       <c r="E76" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="H76" s="9">
         <v>1</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="10"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="L76" s="9" t="s">
         <v>185</v>
       </c>
@@ -5383,44 +5406,44 @@
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="Q76" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L76="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L76="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L76="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L76="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
@@ -5435,44 +5458,44 @@
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="Q77" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L77="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L77="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L77="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L77="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H78" s="9">
         <v>1</v>
@@ -5487,44 +5510,44 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="Q78" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L78="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L78="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L78="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L78="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H79" s="9">
         <v>1</v>
@@ -5539,44 +5562,44 @@
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="Q79" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L79="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L79="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L79="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L79="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H80" s="9">
         <v>1</v>
@@ -5591,53 +5614,51 @@
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="Q80" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L80="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L80="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L80="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L80="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
-      <c r="K81" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="K81" s="2"/>
       <c r="L81" s="9" t="s">
         <v>185</v>
       </c>
@@ -5645,44 +5666,44 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="Q81" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L81="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L81="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L81="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L81="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="H82" s="9">
         <v>1</v>
@@ -5697,35 +5718,35 @@
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="Q82" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L82="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L82="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L82="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L82="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>129</v>
@@ -5741,7 +5762,9 @@
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="10"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="L83" s="9" t="s">
         <v>185</v>
       </c>
@@ -5749,35 +5772,35 @@
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="Q83" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L83="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L83="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L83="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L83="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>129</v>
@@ -5786,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H84" s="9">
         <v>1</v>
@@ -5801,41 +5824,41 @@
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="Q84" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L84="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L84="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L84="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L84="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>110</v>
@@ -5853,44 +5876,44 @@
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
       <c r="Q85" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L85="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L85="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L85="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L85="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H86" s="9">
         <v>1</v>
@@ -5905,44 +5928,44 @@
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="Q86" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L86="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L86="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L86="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L86="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H87" s="9">
         <v>1</v>
@@ -5957,35 +5980,35 @@
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="Q87" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L87="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L87="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L87="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L87="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>18</v>
@@ -6009,35 +6032,35 @@
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="Q88" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L88="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L88="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L88="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L88="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>18</v>
@@ -6061,44 +6084,44 @@
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="Q89" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L89="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L89="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L89="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L89="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -6113,35 +6136,35 @@
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="Q90" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L90="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L90="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L90="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L90="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>18</v>
@@ -6150,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H91" s="9">
         <v>1</v>
@@ -6165,44 +6188,44 @@
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
       <c r="Q91" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L91="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L91="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L91="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L91="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="H92" s="9">
         <v>1</v>
@@ -6217,51 +6240,51 @@
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="Q92" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L92="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L92="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L92="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L92="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="H93" s="9">
         <v>1</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="9" t="s">
         <v>185</v>
       </c>
@@ -6269,44 +6292,44 @@
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="Q93" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L93="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L93="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L93="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L93="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="H94" s="9">
         <v>1</v>
@@ -6321,51 +6344,51 @@
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="Q94" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L94="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L94="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L94="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L94="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G95" s="10"/>
       <c r="H95" s="9">
         <v>1</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="10"/>
-      <c r="K95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="L95" s="9" t="s">
         <v>185</v>
       </c>
@@ -6373,35 +6396,35 @@
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="Q95" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L95="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L95="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L95="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L95="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>129</v>
@@ -6410,7 +6433,7 @@
         <v>39</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H96" s="9">
         <v>1</v>
@@ -6425,44 +6448,44 @@
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="Q96" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L96="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R96" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L96="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L96="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L96="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
@@ -6477,44 +6500,44 @@
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="Q97" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L97="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L97="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L97="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L97="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H98" s="9">
         <v>1</v>
@@ -6529,44 +6552,44 @@
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="Q98" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L98="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L98="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L98="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L98="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="H99" s="9">
         <v>1</v>
@@ -6581,44 +6604,44 @@
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="Q99" s="2">
-        <f t="shared" si="10"/>
+        <f>IF($L99="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" si="11"/>
+        <f>IF($L99="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="12"/>
+        <f>IF($L99="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="13"/>
+        <f>IF($L99="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="H100" s="9">
         <v>1</v>
@@ -6633,35 +6656,35 @@
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="Q100" s="2">
-        <f t="shared" ref="Q100:Q119" si="15">IF($L100="Mod",1,0)</f>
+        <f>IF($L100="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" ref="R100:R119" si="16">IF($L100="Trad",1,0)</f>
+        <f>IF($L100="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" ref="S100:S119" si="17">IF($L100="Fixed",1,0)</f>
+        <f>IF($L100="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" ref="T100:T119" si="18">IF($L100="Multi",1,0)</f>
+        <f>IF($L100="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="9">
-        <f t="shared" ref="A101:A119" si="19">A100+1</f>
+        <f t="shared" ref="A101:A121" si="3">A100+1</f>
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>77</v>
@@ -6685,44 +6708,44 @@
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="Q101" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L101="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L101="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L101="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L101="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="H102" s="9">
         <v>1</v>
@@ -6731,197 +6754,205 @@
       <c r="J102" s="10"/>
       <c r="K102" s="2"/>
       <c r="L102" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="Q102" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF($L102="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>IF($L102="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L102="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L102="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="E103" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="H103" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
-      <c r="K103" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="K103" s="2"/>
       <c r="L103" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="Q103" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF($L103="Mod",1,0)</f>
+        <v>1</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>IF($L103="Trad",1,0)</f>
+        <v>0</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L103="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L103="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="E104" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G104" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H104" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="2"/>
       <c r="L104" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="Q104" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L104="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>IF($L104="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L104="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF($L104="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="H105" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="L105" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M105" s="15"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="Q105" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L105="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>IF($L105="Trad",1,0)</f>
+        <v>1</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L105="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF($L105="Multi",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
@@ -6933,43 +6964,43 @@
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="Q106" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L106="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L106="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L106="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L106="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
@@ -6981,25 +7012,25 @@
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="Q107" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L107="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L107="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L107="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L107="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -7013,7 +7044,7 @@
         <v>34</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="9">
@@ -7029,39 +7060,39 @@
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="Q108" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L108="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L108="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L108="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L108="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="2" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="9">
@@ -7077,43 +7108,43 @@
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="Q109" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L109="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L109="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L109="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L109="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
@@ -7125,43 +7156,43 @@
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="Q110" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L110="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L110="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L110="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L110="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
@@ -7173,43 +7204,43 @@
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="Q111" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L111="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L111="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S111" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L111="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L111="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="2" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
@@ -7221,32 +7252,32 @@
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="Q112" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L112="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L112="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S112" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L112="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L112="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="2" t="s">
@@ -7257,7 +7288,7 @@
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
@@ -7269,91 +7300,91 @@
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="Q113" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L113="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L113="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L113="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L113="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G114" s="21"/>
-      <c r="H114" s="23">
-        <v>20</v>
-      </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="23" t="s">
+      <c r="C114" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D114" s="21"/>
+      <c r="E114" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="22">
+        <v>5</v>
+      </c>
+      <c r="I114" s="22"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="22" t="s">
         <v>184</v>
       </c>
       <c r="M114" s="15"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="Q114" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L114="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L114="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L114="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L114="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="19">
-        <f t="shared" si="19"/>
+      <c r="A115" s="18">
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
@@ -7365,32 +7396,32 @@
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="Q115" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L115="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L115="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S115" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L115="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L115="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="2" t="s">
@@ -7401,7 +7432,7 @@
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
@@ -7410,42 +7441,42 @@
         <v>184</v>
       </c>
       <c r="M116" s="15"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
       <c r="Q116" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L116="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R116" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L116="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S116" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L116="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L116="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="9">
@@ -7458,35 +7489,35 @@
         <v>184</v>
       </c>
       <c r="M117" s="15"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
       <c r="Q117" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L117="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R117" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L117="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S117" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L117="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L117="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="2" t="s">
@@ -7497,7 +7528,7 @@
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="10"/>
@@ -7506,107 +7537,177 @@
         <v>184</v>
       </c>
       <c r="M118" s="15"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
       <c r="Q118" s="2">
-        <f t="shared" si="15"/>
+        <f>IF($L118="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R118" s="2">
-        <f t="shared" si="16"/>
+        <f>IF($L118="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S118" s="2">
-        <f t="shared" si="17"/>
+        <f>IF($L118="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T118" s="2">
-        <f t="shared" si="18"/>
+        <f>IF($L118="Multi",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D119" s="11"/>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G119" s="10"/>
       <c r="H119" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I119" s="9"/>
-      <c r="J119" s="10" t="s">
-        <v>213</v>
-      </c>
+      <c r="J119" s="10"/>
       <c r="K119" s="2"/>
       <c r="L119" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M119" s="15"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="Q119" s="2">
+        <f>IF($L119="Mod",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R119" s="2">
+        <f>IF($L119="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <f>IF($L119="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <f>IF($L119="Multi",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" s="9">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="9">
+        <v>6</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M120" s="15"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="Q120" s="2">
+        <f>IF($L120="Mod",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="2">
+        <f>IF($L120="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="2">
+        <f>IF($L120="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T120" s="2">
+        <f>IF($L120="Multi",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" s="9">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="M119" s="15"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="Q119" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R119" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S119" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T119" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
-      <c r="B120" s="1"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-    </row>
-    <row r="121" spans="1:20">
-      <c r="B121" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="11">
-        <f>Q125</f>
-        <v>36</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="Q121" s="2">
+        <f>IF($L121="Mod",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R121" s="2">
+        <f>IF($L121="Trad",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S121" s="2">
+        <f>IF($L121="Fixed",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T121" s="2">
+        <f>IF($L121="Multi",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:20">
-      <c r="B122" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="11">
-        <f>S125</f>
-        <v>11</v>
-      </c>
+      <c r="B122" s="1"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -7614,11 +7715,11 @@
     </row>
     <row r="123" spans="1:20">
       <c r="B123" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C123" s="11">
-        <f>R125</f>
-        <v>50</v>
+        <f>Q127</f>
+        <v>36</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -7627,11 +7728,11 @@
     </row>
     <row r="124" spans="1:20">
       <c r="B124" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" s="14">
-        <f>T125</f>
-        <v>19</v>
+        <v>186</v>
+      </c>
+      <c r="C124" s="11">
+        <f>S127</f>
+        <v>13</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
@@ -7640,35 +7741,61 @@
     </row>
     <row r="125" spans="1:20">
       <c r="B125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C125" s="11">
+        <f>R127</f>
+        <v>50</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="B126" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="14">
+        <f>T127</f>
+        <v>19</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="B127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="11">
-        <f>SUM(C121:C124)</f>
-        <v>116</v>
-      </c>
-      <c r="Q125" s="2">
-        <f>SUM(Q4:Q124)</f>
+      <c r="C127" s="11">
+        <f>SUM(C123:C126)</f>
+        <v>118</v>
+      </c>
+      <c r="Q127" s="2">
+        <f>SUM(Q4:Q126)</f>
         <v>36</v>
       </c>
-      <c r="R125" s="2">
-        <f>SUM(R4:R124)</f>
+      <c r="R127" s="2">
+        <f>SUM(R4:R126)</f>
         <v>50</v>
       </c>
-      <c r="S125" s="2">
-        <f>SUM(S4:S124)</f>
-        <v>11</v>
-      </c>
-      <c r="T125" s="2">
-        <f>SUM(T4:T124)</f>
+      <c r="S127" s="2">
+        <f>SUM(S4:S126)</f>
+        <v>13</v>
+      </c>
+      <c r="T127" s="2">
+        <f>SUM(T4:T126)</f>
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L125"/>
-  <sortState ref="A4:T119">
-    <sortCondition ref="B4:B119"/>
-    <sortCondition ref="C4:C119"/>
-    <sortCondition ref="D4:D119"/>
+  <autoFilter ref="L1:L127"/>
+  <sortState ref="B4:T121">
+    <sortCondition ref="B4:B121"/>
+    <sortCondition ref="C4:C121"/>
+    <sortCondition ref="D4:D121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -1403,9 +1403,10 @@
     <col min="8" max="9" width="7.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="43.140625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.85546875" style="7" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="16" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="16" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -1515,25 +1516,25 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="Q4" s="2">
-        <f>IF($L4="Mod",1,0)</f>
+        <f t="shared" ref="Q4:Q35" si="0">IF($L4="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>IF($L4="Trad",1,0)</f>
+        <f t="shared" ref="R4:R35" si="1">IF($L4="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f>IF($L4="Fixed",1,0)</f>
+        <f t="shared" ref="S4:S35" si="2">IF($L4="Fixed",1,0)</f>
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <f>IF($L4="Multi",1,0)</f>
+        <f t="shared" ref="T4:T35" si="3">IF($L4="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9">
-        <f t="shared" ref="A5:A36" si="0">A4+1</f>
+        <f t="shared" ref="A5:A36" si="4">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1569,25 +1570,25 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="Q5" s="2">
-        <f>IF($L5="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <f>IF($L5="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f>IF($L5="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f>IF($L5="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1619,25 +1620,25 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="Q6" s="2">
-        <f>IF($L6="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f>IF($L6="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f>IF($L6="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <f>IF($L6="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1669,25 +1670,25 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="Q7" s="2">
-        <f>IF($L7="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <f>IF($L7="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f>IF($L7="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f>IF($L7="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1719,25 +1720,25 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="Q8" s="2">
-        <f>IF($L8="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f>IF($L8="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f>IF($L8="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8" s="2">
-        <f>IF($L8="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1775,25 +1776,25 @@
       </c>
       <c r="O9" s="17"/>
       <c r="Q9" s="2">
-        <f>IF($L9="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>IF($L9="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <f>IF($L9="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <f>IF($L9="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1833,25 +1834,25 @@
       </c>
       <c r="O10" s="17"/>
       <c r="Q10" s="2">
-        <f>IF($L10="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>IF($L10="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10" s="2">
-        <f>IF($L10="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f>IF($L10="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1885,25 +1886,25 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="Q11" s="2">
-        <f>IF($L11="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>IF($L11="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="2">
-        <f>IF($L11="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f>IF($L11="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1937,25 +1938,25 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="2">
-        <f>IF($L12="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f>IF($L12="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f>IF($L12="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f>IF($L12="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1989,25 +1990,25 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="2">
-        <f>IF($L13="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>IF($L13="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <f>IF($L13="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f>IF($L13="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2041,25 +2042,25 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="2">
-        <f>IF($L14="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>IF($L14="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="2">
-        <f>IF($L14="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f>IF($L14="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2093,25 +2094,25 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="Q15" s="2">
-        <f>IF($L15="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>IF($L15="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <f>IF($L15="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f>IF($L15="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2145,25 +2146,25 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="Q16" s="2">
-        <f>IF($L16="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>IF($L16="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <f>IF($L16="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f>IF($L16="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2197,25 +2198,25 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="2">
-        <f>IF($L17="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>IF($L17="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S17" s="2">
-        <f>IF($L17="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f>IF($L17="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2251,25 +2252,25 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="Q18" s="2">
-        <f>IF($L18="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>IF($L18="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S18" s="2">
-        <f>IF($L18="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f>IF($L18="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2305,25 +2306,25 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="Q19" s="2">
-        <f>IF($L19="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>IF($L19="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f>IF($L19="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f>IF($L19="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2359,25 +2360,25 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="Q20" s="2">
-        <f>IF($L20="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>IF($L20="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f>IF($L20="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f>IF($L20="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2411,25 +2412,25 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="Q21" s="2">
-        <f>IF($L21="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>IF($L21="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f>IF($L21="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f>IF($L21="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2467,25 +2468,25 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="Q22" s="2">
-        <f>IF($L22="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>IF($L22="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f>IF($L22="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f>IF($L22="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2523,25 +2524,25 @@
       </c>
       <c r="O23" s="17"/>
       <c r="Q23" s="2">
-        <f>IF($L23="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>IF($L23="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f>IF($L23="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f>IF($L23="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2579,25 +2580,25 @@
       </c>
       <c r="O24" s="17"/>
       <c r="Q24" s="2">
-        <f>IF($L24="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f>IF($L24="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f>IF($L24="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f>IF($L24="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2637,25 +2638,25 @@
       </c>
       <c r="O25" s="17"/>
       <c r="Q25" s="2">
-        <f>IF($L25="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>IF($L25="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f>IF($L25="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f>IF($L25="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2697,25 +2698,25 @@
       </c>
       <c r="O26" s="17"/>
       <c r="Q26" s="2">
-        <f>IF($L26="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f>IF($L26="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f>IF($L26="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f>IF($L26="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2757,25 +2758,25 @@
         <v>400</v>
       </c>
       <c r="Q27" s="2">
-        <f>IF($L27="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f>IF($L27="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f>IF($L27="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f>IF($L27="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2807,25 +2808,25 @@
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="Q28" s="2">
-        <f>IF($L28="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>IF($L28="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f>IF($L28="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f>IF($L28="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2855,25 +2856,25 @@
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="Q29" s="2">
-        <f>IF($L29="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>IF($L29="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f>IF($L29="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f>IF($L29="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2911,25 +2912,25 @@
       </c>
       <c r="O30" s="17"/>
       <c r="Q30" s="2">
-        <f>IF($L30="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>IF($L30="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f>IF($L30="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f>IF($L30="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2963,25 +2964,25 @@
       </c>
       <c r="O31" s="17"/>
       <c r="Q31" s="2">
-        <f>IF($L31="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>IF($L31="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f>IF($L31="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T31" s="2">
-        <f>IF($L31="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3011,25 +3012,25 @@
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="Q32" s="2">
-        <f>IF($L32="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>IF($L32="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f>IF($L32="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T32" s="2">
-        <f>IF($L32="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3065,25 +3066,25 @@
       </c>
       <c r="O33" s="17"/>
       <c r="Q33" s="2">
-        <f>IF($L33="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>IF($L33="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f>IF($L33="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T33" s="2">
-        <f>IF($L33="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3115,25 +3116,25 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="Q34" s="2">
-        <f>IF($L34="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>IF($L34="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f>IF($L34="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T34" s="2">
-        <f>IF($L34="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3163,25 +3164,25 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="Q35" s="2">
-        <f>IF($L35="Mod",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>IF($L35="Trad",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f>IF($L35="Fixed",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T35" s="2">
-        <f>IF($L35="Multi",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3215,25 +3216,25 @@
       </c>
       <c r="O36" s="17"/>
       <c r="Q36" s="2">
-        <f>IF($L36="Mod",1,0)</f>
+        <f t="shared" ref="Q36:Q67" si="5">IF($L36="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>IF($L36="Trad",1,0)</f>
+        <f t="shared" ref="R36:R67" si="6">IF($L36="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f>IF($L36="Fixed",1,0)</f>
+        <f t="shared" ref="S36:S67" si="7">IF($L36="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <f>IF($L36="Multi",1,0)</f>
+        <f t="shared" ref="T36:T67" si="8">IF($L36="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="9">
-        <f t="shared" ref="A37:A68" si="1">A36+1</f>
+        <f t="shared" ref="A37:A68" si="9">A36+1</f>
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3267,25 +3268,25 @@
       </c>
       <c r="O37" s="17"/>
       <c r="Q37" s="2">
-        <f>IF($L37="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>IF($L37="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S37" s="2">
-        <f>IF($L37="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <f>IF($L37="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3319,25 +3320,25 @@
       </c>
       <c r="O38" s="17"/>
       <c r="Q38" s="2">
-        <f>IF($L38="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>IF($L38="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f>IF($L38="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f>IF($L38="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3375,25 +3376,25 @@
       </c>
       <c r="O39" s="17"/>
       <c r="Q39" s="2">
-        <f>IF($L39="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>IF($L39="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f>IF($L39="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f>IF($L39="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3433,25 +3434,25 @@
       </c>
       <c r="O40" s="17"/>
       <c r="Q40" s="2">
-        <f>IF($L40="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>IF($L40="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S40" s="2">
-        <f>IF($L40="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <f>IF($L40="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3489,25 +3490,25 @@
       </c>
       <c r="O41" s="17"/>
       <c r="Q41" s="2">
-        <f>IF($L41="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>IF($L41="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S41" s="2">
-        <f>IF($L41="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f>IF($L41="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3545,25 +3546,25 @@
       </c>
       <c r="O42" s="17"/>
       <c r="Q42" s="2">
-        <f>IF($L42="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>IF($L42="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S42" s="2">
-        <f>IF($L42="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f>IF($L42="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3603,25 +3604,25 @@
       </c>
       <c r="O43" s="17"/>
       <c r="Q43" s="2">
-        <f>IF($L43="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>IF($L43="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S43" s="2">
-        <f>IF($L43="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f>IF($L43="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3659,25 +3660,25 @@
       </c>
       <c r="O44" s="17"/>
       <c r="Q44" s="2">
-        <f>IF($L44="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>IF($L44="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S44" s="2">
-        <f>IF($L44="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f>IF($L44="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3717,25 +3718,25 @@
       </c>
       <c r="O45" s="17"/>
       <c r="Q45" s="2">
-        <f>IF($L45="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>IF($L45="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S45" s="2">
-        <f>IF($L45="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <f>IF($L45="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3777,25 +3778,25 @@
         <v>155</v>
       </c>
       <c r="Q46" s="2">
-        <f>IF($L46="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>IF($L46="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S46" s="2">
-        <f>IF($L46="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f>IF($L46="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3833,25 +3834,25 @@
         <v>140</v>
       </c>
       <c r="Q47" s="2">
-        <f>IF($L47="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>IF($L47="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <f>IF($L47="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f>IF($L47="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3893,25 +3894,25 @@
       </c>
       <c r="O48" s="17"/>
       <c r="Q48" s="2">
-        <f>IF($L48="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>IF($L48="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S48" s="2">
-        <f>IF($L48="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f>IF($L48="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3953,25 +3954,25 @@
       </c>
       <c r="O49" s="17"/>
       <c r="Q49" s="2">
-        <f>IF($L49="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>IF($L49="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S49" s="2">
-        <f>IF($L49="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f>IF($L49="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4013,25 +4014,25 @@
       </c>
       <c r="O50" s="17"/>
       <c r="Q50" s="2">
-        <f>IF($L50="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>IF($L50="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S50" s="2">
-        <f>IF($L50="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f>IF($L50="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4073,25 +4074,25 @@
       </c>
       <c r="O51" s="17"/>
       <c r="Q51" s="2">
-        <f>IF($L51="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>IF($L51="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S51" s="2">
-        <f>IF($L51="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f>IF($L51="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4133,25 +4134,25 @@
       </c>
       <c r="O52" s="17"/>
       <c r="Q52" s="2">
-        <f>IF($L52="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>IF($L52="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S52" s="2">
-        <f>IF($L52="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f>IF($L52="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4193,25 +4194,25 @@
       </c>
       <c r="O53" s="17"/>
       <c r="Q53" s="2">
-        <f>IF($L53="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>IF($L53="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S53" s="2">
-        <f>IF($L53="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f>IF($L53="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4251,25 +4252,25 @@
       </c>
       <c r="O54" s="17"/>
       <c r="Q54" s="2">
-        <f>IF($L54="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>IF($L54="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S54" s="2">
-        <f>IF($L54="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T54" s="2">
-        <f>IF($L54="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -4309,25 +4310,25 @@
       </c>
       <c r="O55" s="17"/>
       <c r="Q55" s="2">
-        <f>IF($L55="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>IF($L55="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <f>IF($L55="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T55" s="2">
-        <f>IF($L55="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -4357,25 +4358,25 @@
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="Q56" s="2">
-        <f>IF($L56="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>IF($L56="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f>IF($L56="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T56" s="2">
-        <f>IF($L56="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -4405,25 +4406,25 @@
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="Q57" s="2">
-        <f>IF($L57="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>IF($L57="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <f>IF($L57="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T57" s="2">
-        <f>IF($L57="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -4453,25 +4454,25 @@
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="Q58" s="2">
-        <f>IF($L58="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>IF($L58="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f>IF($L58="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T58" s="2">
-        <f>IF($L58="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -4505,25 +4506,25 @@
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="Q59" s="2">
-        <f>IF($L59="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>IF($L59="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S59" s="2">
-        <f>IF($L59="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f>IF($L59="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -4559,25 +4560,25 @@
       </c>
       <c r="O60" s="17"/>
       <c r="Q60" s="2">
-        <f>IF($L60="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>IF($L60="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f>IF($L60="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f>IF($L60="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -4607,25 +4608,25 @@
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="Q61" s="2">
-        <f>IF($L61="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>IF($L61="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f>IF($L61="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <f>IF($L61="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -4655,25 +4656,25 @@
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="Q62" s="2">
-        <f>IF($L62="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f>IF($L62="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S62" s="2">
-        <f>IF($L62="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f>IF($L62="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -4711,25 +4712,25 @@
       </c>
       <c r="O63" s="17"/>
       <c r="Q63" s="2">
-        <f>IF($L63="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f>IF($L63="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <f>IF($L63="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <f>IF($L63="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -4767,25 +4768,25 @@
       </c>
       <c r="O64" s="17"/>
       <c r="Q64" s="2">
-        <f>IF($L64="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f>IF($L64="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f>IF($L64="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <f>IF($L64="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -4825,25 +4826,25 @@
       </c>
       <c r="O65" s="17"/>
       <c r="Q65" s="2">
-        <f>IF($L65="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R65" s="2">
-        <f>IF($L65="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f>IF($L65="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f>IF($L65="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4879,25 +4880,25 @@
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="2">
-        <f>IF($L66="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <f>IF($L66="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S66" s="2">
-        <f>IF($L66="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f>IF($L66="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -4931,25 +4932,25 @@
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="Q67" s="2">
-        <f>IF($L67="Mod",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R67" s="2">
-        <f>IF($L67="Trad",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S67" s="2">
-        <f>IF($L67="Fixed",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f>IF($L67="Multi",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5000,7 +5001,7 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="9">
-        <f t="shared" ref="A69:A100" si="2">A68+1</f>
+        <f t="shared" ref="A69:A100" si="10">A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5036,25 +5037,25 @@
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="Q69" s="2">
-        <f>IF($L69="Mod",1,0)</f>
+        <f t="shared" ref="Q69:Q100" si="11">IF($L69="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R69" s="2">
-        <f>IF($L69="Trad",1,0)</f>
+        <f t="shared" ref="R69:R100" si="12">IF($L69="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S69" s="2">
-        <f>IF($L69="Fixed",1,0)</f>
+        <f t="shared" ref="S69:S100" si="13">IF($L69="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f>IF($L69="Multi",1,0)</f>
+        <f t="shared" ref="T69:T100" si="14">IF($L69="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5088,25 +5089,25 @@
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="Q70" s="2">
-        <f>IF($L70="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f>IF($L70="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f>IF($L70="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <f>IF($L70="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -5142,25 +5143,25 @@
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="Q71" s="2">
-        <f>IF($L71="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f>IF($L71="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S71" s="2">
-        <f>IF($L71="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f>IF($L71="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -5196,25 +5197,25 @@
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="Q72" s="2">
-        <f>IF($L72="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f>IF($L72="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S72" s="2">
-        <f>IF($L72="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f>IF($L72="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -5250,25 +5251,25 @@
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="Q73" s="2">
-        <f>IF($L73="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="2">
-        <f>IF($L73="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S73" s="2">
-        <f>IF($L73="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f>IF($L73="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5302,25 +5303,25 @@
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="Q74" s="2">
-        <f>IF($L74="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="2">
-        <f>IF($L74="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S74" s="2">
-        <f>IF($L74="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T74" s="2">
-        <f>IF($L74="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5354,25 +5355,25 @@
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="Q75" s="2">
-        <f>IF($L75="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R75" s="2">
-        <f>IF($L75="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S75" s="2">
-        <f>IF($L75="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f>IF($L75="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5406,25 +5407,25 @@
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="Q76" s="2">
-        <f>IF($L76="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R76" s="2">
-        <f>IF($L76="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <f>IF($L76="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f>IF($L76="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -5458,25 +5459,25 @@
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="Q77" s="2">
-        <f>IF($L77="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R77" s="2">
-        <f>IF($L77="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S77" s="2">
-        <f>IF($L77="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f>IF($L77="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -5510,25 +5511,25 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="Q78" s="2">
-        <f>IF($L78="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R78" s="2">
-        <f>IF($L78="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S78" s="2">
-        <f>IF($L78="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f>IF($L78="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -5562,25 +5563,25 @@
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="Q79" s="2">
-        <f>IF($L79="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R79" s="2">
-        <f>IF($L79="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S79" s="2">
-        <f>IF($L79="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f>IF($L79="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -5614,25 +5615,25 @@
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="Q80" s="2">
-        <f>IF($L80="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R80" s="2">
-        <f>IF($L80="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f>IF($L80="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f>IF($L80="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -5666,25 +5667,25 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="Q81" s="2">
-        <f>IF($L81="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R81" s="2">
-        <f>IF($L81="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <f>IF($L81="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f>IF($L81="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -5718,25 +5719,25 @@
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="Q82" s="2">
-        <f>IF($L82="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R82" s="2">
-        <f>IF($L82="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S82" s="2">
-        <f>IF($L82="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <f>IF($L82="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -5772,25 +5773,25 @@
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="Q83" s="2">
-        <f>IF($L83="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R83" s="2">
-        <f>IF($L83="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S83" s="2">
-        <f>IF($L83="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <f>IF($L83="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5824,25 +5825,25 @@
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="Q84" s="2">
-        <f>IF($L84="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R84" s="2">
-        <f>IF($L84="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <f>IF($L84="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T84" s="2">
-        <f>IF($L84="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -5876,25 +5877,25 @@
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
       <c r="Q85" s="2">
-        <f>IF($L85="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R85" s="2">
-        <f>IF($L85="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S85" s="2">
-        <f>IF($L85="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T85" s="2">
-        <f>IF($L85="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -5928,25 +5929,25 @@
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="Q86" s="2">
-        <f>IF($L86="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R86" s="2">
-        <f>IF($L86="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <f>IF($L86="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <f>IF($L86="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5980,25 +5981,25 @@
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="Q87" s="2">
-        <f>IF($L87="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R87" s="2">
-        <f>IF($L87="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S87" s="2">
-        <f>IF($L87="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f>IF($L87="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -6032,25 +6033,25 @@
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="Q88" s="2">
-        <f>IF($L88="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R88" s="2">
-        <f>IF($L88="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S88" s="2">
-        <f>IF($L88="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T88" s="2">
-        <f>IF($L88="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -6084,25 +6085,25 @@
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="Q89" s="2">
-        <f>IF($L89="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R89" s="2">
-        <f>IF($L89="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <f>IF($L89="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <f>IF($L89="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -6136,25 +6137,25 @@
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="Q90" s="2">
-        <f>IF($L90="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R90" s="2">
-        <f>IF($L90="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S90" s="2">
-        <f>IF($L90="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T90" s="2">
-        <f>IF($L90="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -6188,25 +6189,25 @@
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
       <c r="Q91" s="2">
-        <f>IF($L91="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R91" s="2">
-        <f>IF($L91="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <f>IF($L91="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f>IF($L91="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -6240,25 +6241,25 @@
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="Q92" s="2">
-        <f>IF($L92="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R92" s="2">
-        <f>IF($L92="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <f>IF($L92="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f>IF($L92="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -6292,25 +6293,25 @@
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="Q93" s="2">
-        <f>IF($L93="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R93" s="2">
-        <f>IF($L93="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <f>IF($L93="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f>IF($L93="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -6344,25 +6345,25 @@
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="Q94" s="2">
-        <f>IF($L94="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R94" s="2">
-        <f>IF($L94="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <f>IF($L94="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T94" s="2">
-        <f>IF($L94="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -6396,25 +6397,25 @@
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="Q95" s="2">
-        <f>IF($L95="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R95" s="2">
-        <f>IF($L95="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <f>IF($L95="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f>IF($L95="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6448,25 +6449,25 @@
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="Q96" s="2">
-        <f>IF($L96="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R96" s="2">
-        <f>IF($L96="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <f>IF($L96="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T96" s="2">
-        <f>IF($L96="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6500,25 +6501,25 @@
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="Q97" s="2">
-        <f>IF($L97="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R97" s="2">
-        <f>IF($L97="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <f>IF($L97="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f>IF($L97="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -6552,25 +6553,25 @@
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="Q98" s="2">
-        <f>IF($L98="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R98" s="2">
-        <f>IF($L98="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <f>IF($L98="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T98" s="2">
-        <f>IF($L98="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -6604,25 +6605,25 @@
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="Q99" s="2">
-        <f>IF($L99="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R99" s="2">
-        <f>IF($L99="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <f>IF($L99="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f>IF($L99="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -6656,25 +6657,25 @@
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="Q100" s="2">
-        <f>IF($L100="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R100" s="2">
-        <f>IF($L100="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <f>IF($L100="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T100" s="2">
-        <f>IF($L100="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="9">
-        <f t="shared" ref="A101:A121" si="3">A100+1</f>
+        <f t="shared" ref="A101:A121" si="15">A100+1</f>
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -6708,25 +6709,25 @@
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="Q101" s="2">
-        <f>IF($L101="Mod",1,0)</f>
+        <f t="shared" ref="Q101:Q121" si="16">IF($L101="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R101" s="2">
-        <f>IF($L101="Trad",1,0)</f>
+        <f t="shared" ref="R101:R121" si="17">IF($L101="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <f>IF($L101="Fixed",1,0)</f>
+        <f t="shared" ref="S101:S121" si="18">IF($L101="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f>IF($L101="Multi",1,0)</f>
+        <f t="shared" ref="T101:T121" si="19">IF($L101="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -6760,25 +6761,25 @@
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="Q102" s="2">
-        <f>IF($L102="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R102" s="2">
-        <f>IF($L102="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S102" s="2">
-        <f>IF($L102="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T102" s="2">
-        <f>IF($L102="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -6812,25 +6813,25 @@
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="Q103" s="2">
-        <f>IF($L103="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R103" s="2">
-        <f>IF($L103="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S103" s="2">
-        <f>IF($L103="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f>IF($L103="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -6864,25 +6865,25 @@
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="Q104" s="2">
-        <f>IF($L104="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R104" s="2">
-        <f>IF($L104="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S104" s="2">
-        <f>IF($L104="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f>IF($L104="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -6916,25 +6917,25 @@
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="Q105" s="2">
-        <f>IF($L105="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R105" s="2">
-        <f>IF($L105="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S105" s="2">
-        <f>IF($L105="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T105" s="2">
-        <f>IF($L105="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -6964,25 +6965,25 @@
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="Q106" s="2">
-        <f>IF($L106="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R106" s="2">
-        <f>IF($L106="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <f>IF($L106="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T106" s="2">
-        <f>IF($L106="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -7012,25 +7013,25 @@
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="Q107" s="2">
-        <f>IF($L107="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R107" s="2">
-        <f>IF($L107="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <f>IF($L107="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T107" s="2">
-        <f>IF($L107="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -7060,25 +7061,25 @@
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="Q108" s="2">
-        <f>IF($L108="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R108" s="2">
-        <f>IF($L108="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S108" s="2">
-        <f>IF($L108="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f>IF($L108="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -7108,25 +7109,25 @@
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="Q109" s="2">
-        <f>IF($L109="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R109" s="2">
-        <f>IF($L109="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S109" s="2">
-        <f>IF($L109="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T109" s="2">
-        <f>IF($L109="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -7156,25 +7157,25 @@
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="Q110" s="2">
-        <f>IF($L110="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R110" s="2">
-        <f>IF($L110="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S110" s="2">
-        <f>IF($L110="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T110" s="2">
-        <f>IF($L110="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -7204,25 +7205,25 @@
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="Q111" s="2">
-        <f>IF($L111="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R111" s="2">
-        <f>IF($L111="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S111" s="2">
-        <f>IF($L111="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T111" s="2">
-        <f>IF($L111="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -7252,25 +7253,25 @@
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="Q112" s="2">
-        <f>IF($L112="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R112" s="2">
-        <f>IF($L112="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S112" s="2">
-        <f>IF($L112="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T112" s="2">
-        <f>IF($L112="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -7300,25 +7301,25 @@
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="Q113" s="2">
-        <f>IF($L113="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R113" s="2">
-        <f>IF($L113="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S113" s="2">
-        <f>IF($L113="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f>IF($L113="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="B114" s="19" t="s">
@@ -7348,25 +7349,25 @@
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="Q114" s="2">
-        <f>IF($L114="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R114" s="2">
-        <f>IF($L114="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S114" s="2">
-        <f>IF($L114="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T114" s="2">
-        <f>IF($L114="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -7396,25 +7397,25 @@
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="Q115" s="2">
-        <f>IF($L115="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R115" s="2">
-        <f>IF($L115="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S115" s="2">
-        <f>IF($L115="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T115" s="2">
-        <f>IF($L115="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -7444,25 +7445,25 @@
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="Q116" s="2">
-        <f>IF($L116="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R116" s="2">
-        <f>IF($L116="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S116" s="2">
-        <f>IF($L116="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T116" s="2">
-        <f>IF($L116="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -7492,25 +7493,25 @@
       <c r="N117" s="17"/>
       <c r="O117" s="17"/>
       <c r="Q117" s="2">
-        <f>IF($L117="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R117" s="2">
-        <f>IF($L117="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S117" s="2">
-        <f>IF($L117="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T117" s="2">
-        <f>IF($L117="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -7540,25 +7541,25 @@
       <c r="N118" s="17"/>
       <c r="O118" s="17"/>
       <c r="Q118" s="2">
-        <f>IF($L118="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R118" s="2">
-        <f>IF($L118="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S118" s="2">
-        <f>IF($L118="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T118" s="2">
-        <f>IF($L118="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7588,25 +7589,25 @@
       <c r="N119" s="17"/>
       <c r="O119" s="17"/>
       <c r="Q119" s="2">
-        <f>IF($L119="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R119" s="2">
-        <f>IF($L119="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S119" s="2">
-        <f>IF($L119="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T119" s="2">
-        <f>IF($L119="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -7636,25 +7637,25 @@
       <c r="N120" s="17"/>
       <c r="O120" s="17"/>
       <c r="Q120" s="2">
-        <f>IF($L120="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R120" s="2">
-        <f>IF($L120="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S120" s="2">
-        <f>IF($L120="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T120" s="2">
-        <f>IF($L120="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -7690,19 +7691,19 @@
       <c r="N121" s="17"/>
       <c r="O121" s="17"/>
       <c r="Q121" s="2">
-        <f>IF($L121="Mod",1,0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R121" s="2">
-        <f>IF($L121="Trad",1,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S121" s="2">
-        <f>IF($L121="Fixed",1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T121" s="2">
-        <f>IF($L121="Multi",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>

--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -1407,6 +1407,7 @@
     <col min="13" max="13" width="9.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="9.140625" style="16" hidden="1" customWidth="1"/>
     <col min="17" max="20" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="16" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -7792,7 +7793,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L127"/>
   <sortState ref="B4:T121">
     <sortCondition ref="B4:B121"/>
     <sortCondition ref="C4:C121"/>

--- a/pub/Knives.xlsx
+++ b/pub/Knives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91592489-452C-4419-9BFD-C10B5E873E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7E0ED-A43A-454B-BFF3-A529BC34CDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38550" yWindow="45" windowWidth="31095" windowHeight="20010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39780" yWindow="0" windowWidth="33135" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="312">
   <si>
     <t>GEC Northfield</t>
   </si>
@@ -961,6 +961,18 @@
   </si>
   <si>
     <t>C36GPE</t>
+  </si>
+  <si>
+    <t>LionSteel</t>
+  </si>
+  <si>
+    <t>BestMan</t>
+  </si>
+  <si>
+    <t>M390</t>
+  </si>
+  <si>
+    <t>Titanium liners &amp; bolsters</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,9 +1470,9 @@
     <col min="8" max="9" width="7.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="43.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" style="5" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="13" customWidth="1"/>
     <col min="17" max="20" width="9.140625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="13" customWidth="1"/>
@@ -1476,7 +1488,7 @@
         <v>179</v>
       </c>
       <c r="B2" s="6">
-        <v>44362</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3237,25 +3249,25 @@
       </c>
       <c r="O36" s="14"/>
       <c r="Q36" s="1">
-        <f t="shared" ref="Q36:Q67" si="5">IF($L36="Mod",1,0)</f>
+        <f t="shared" ref="Q36:Q68" si="5">IF($L36="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" ref="R36:R67" si="6">IF($L36="Trad",1,0)</f>
+        <f t="shared" ref="R36:R68" si="6">IF($L36="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" ref="S36:S67" si="7">IF($L36="Fixed",1,0)</f>
+        <f t="shared" ref="S36:S68" si="7">IF($L36="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:T67" si="8">IF($L36="Multi",1,0)</f>
+        <f t="shared" ref="T36:T68" si="8">IF($L36="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <f t="shared" ref="A37:A68" si="9">A36+1</f>
+        <f t="shared" ref="A37:A69" si="9">A36+1</f>
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4673,36 +4685,38 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="L63" s="7" t="s">
         <v>186</v>
       </c>
       <c r="N63" s="14">
-        <v>129.94999999999999</v>
+        <v>118</v>
       </c>
       <c r="O63" s="14"/>
       <c r="Q63" s="1">
@@ -4731,33 +4745,33 @@
         <v>2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="1" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="8">
-        <v>1095</v>
+        <v>39</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="7" t="s">
         <v>186</v>
       </c>
       <c r="N64" s="14">
-        <v>119.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="O64" s="14"/>
       <c r="Q64" s="1">
@@ -4783,38 +4797,36 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" s="11">
-        <v>99</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="9"/>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1095</v>
       </c>
       <c r="H65" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" s="7">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="7" t="s">
         <v>186</v>
       </c>
       <c r="N65" s="14">
-        <v>105.95</v>
+        <v>119.95</v>
       </c>
       <c r="O65" s="14"/>
       <c r="Q65" s="1">
@@ -4842,33 +4854,37 @@
       <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="9">
-        <v>51</v>
+      <c r="C66" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="11">
+        <v>99</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="8">
-        <v>1095</v>
+      <c r="G66" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K66" s="1"/>
       <c r="L66" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N66" s="14"/>
+      <c r="N66" s="14">
+        <v>105.95</v>
+      </c>
       <c r="O66" s="14"/>
       <c r="Q66" s="1">
         <f t="shared" si="5"/>
@@ -4907,14 +4923,16 @@
       <c r="F67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G67" s="8"/>
+      <c r="G67" s="8">
+        <v>1095</v>
+      </c>
       <c r="H67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="8"/>
       <c r="K67" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>186</v>
@@ -4944,107 +4962,105 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>300</v>
+        <v>45</v>
+      </c>
+      <c r="D68" s="9">
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>302</v>
-      </c>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K68" s="1"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L68" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="N68" s="14">
-        <v>675</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N68" s="14"/>
       <c r="O68" s="14"/>
       <c r="Q68" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <f t="shared" ref="A69:A101" si="10">A68+1</f>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="H69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J69" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K69" s="1"/>
       <c r="L69" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N69" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="N69" s="14">
+        <v>675</v>
+      </c>
       <c r="O69" s="14"/>
       <c r="Q69" s="1">
-        <f t="shared" ref="Q69:Q101" si="11">IF($L69="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" ref="R69:R101" si="12">IF($L69="Trad",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" ref="S69:S101" si="13">IF($L69="Fixed",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" ref="T69:T101" si="14">IF($L69="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A70:A102" si="10">A69+1</f>
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5054,13 +5070,13 @@
         <v>16</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>52</v>
@@ -5070,26 +5086,28 @@
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L70" s="7" t="s">
         <v>186</v>
       </c>
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
       <c r="Q70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q70:Q102" si="11">IF($L70="Mod",1,0)</f>
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R70:R102" si="12">IF($L70="Trad",1,0)</f>
         <v>1</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S70:S102" si="13">IF($L70="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="T70:T102" si="14">IF($L70="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5102,28 +5120,26 @@
         <v>48</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H71" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K71" s="1"/>
       <c r="L71" s="7" t="s">
         <v>186</v>
       </c>
@@ -5155,27 +5171,27 @@
         <v>48</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H72" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
       <c r="K72" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>186</v>
@@ -5208,27 +5224,27 @@
         <v>48</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H73" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8"/>
       <c r="K73" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>186</v>
@@ -5258,28 +5274,30 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H74" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8"/>
       <c r="K74" s="1" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>186</v>
@@ -5309,41 +5327,41 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D75" s="9"/>
       <c r="E75" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G75" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H75" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="8"/>
       <c r="K75" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="Q75" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" si="13"/>
@@ -5360,28 +5378,28 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>247</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
       <c r="K76" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>184</v>
@@ -5411,29 +5429,29 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>159</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="L77" s="7" t="s">
         <v>184</v>
       </c>
@@ -5465,19 +5483,19 @@
         <v>65</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -5567,19 +5585,19 @@
         <v>65</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -5621,16 +5639,16 @@
         <v>107</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5669,10 +5687,10 @@
         <v>65</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>77</v>
@@ -5720,28 +5738,26 @@
         <v>65</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="8"/>
-      <c r="K83" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="K83" s="1"/>
       <c r="L83" s="7" t="s">
         <v>184</v>
       </c>
@@ -5773,10 +5789,10 @@
         <v>65</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>128</v>
@@ -5785,14 +5801,16 @@
         <v>39</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L84" s="7" t="s">
         <v>184</v>
       </c>
@@ -5824,10 +5842,10 @@
         <v>65</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>128</v>
@@ -5836,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -5875,10 +5893,10 @@
         <v>65</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>128</v>
@@ -5926,16 +5944,16 @@
         <v>65</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>110</v>
@@ -5977,19 +5995,19 @@
         <v>65</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
@@ -6079,10 +6097,10 @@
         <v>65</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>18</v>
@@ -6181,19 +6199,19 @@
         <v>65</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -6232,19 +6250,19 @@
         <v>65</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -6334,26 +6352,26 @@
         <v>65</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="H95" s="7">
         <v>1</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="K95" s="1"/>
       <c r="L95" s="7" t="s">
         <v>184</v>
       </c>
@@ -6385,26 +6403,26 @@
         <v>65</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G96" s="8"/>
       <c r="H96" s="7">
         <v>1</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="1"/>
+      <c r="K96" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L96" s="7" t="s">
         <v>184</v>
       </c>
@@ -6436,19 +6454,19 @@
         <v>65</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H97" s="7">
         <v>1</v>
@@ -6487,10 +6505,10 @@
         <v>65</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>77</v>
@@ -6499,7 +6517,7 @@
         <v>39</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -6510,9 +6528,7 @@
       <c r="L98" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N98" s="14">
-        <v>118</v>
-      </c>
+      <c r="N98" s="14"/>
       <c r="O98" s="14"/>
       <c r="Q98" s="1">
         <f t="shared" si="11"/>
@@ -6540,19 +6556,19 @@
         <v>65</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="H99" s="7">
         <v>1</v>
@@ -6563,7 +6579,9 @@
       <c r="L99" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N99" s="14"/>
+      <c r="N99" s="14">
+        <v>118</v>
+      </c>
       <c r="O99" s="14"/>
       <c r="Q99" s="1">
         <f t="shared" si="11"/>
@@ -6591,19 +6609,19 @@
         <v>65</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -6642,19 +6660,19 @@
         <v>65</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -6686,17 +6704,17 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
-        <f t="shared" ref="A102:A122" si="15">A101+1</f>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>77</v>
@@ -6719,44 +6737,44 @@
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="Q102" s="1">
-        <f t="shared" ref="Q102:Q122" si="16">IF($L102="Mod",1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R102" s="1">
-        <f t="shared" ref="R102:R122" si="17">IF($L102="Trad",1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" ref="S102:S122" si="18">IF($L102="Fixed",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" ref="T102:T122" si="19">IF($L102="Multi",1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A103:A123" si="15">A102+1</f>
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6770,19 +6788,19 @@
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
       <c r="Q103" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="Q103:Q123" si="16">IF($L103="Mod",1,0)</f>
         <v>1</v>
       </c>
       <c r="R103" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="R103:R123" si="17">IF($L103="Trad",1,0)</f>
         <v>0</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="S103:S123" si="18">IF($L103="Fixed",1,0)</f>
         <v>0</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="T103:T123" si="19">IF($L103="Multi",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6795,19 +6813,19 @@
         <v>65</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -6846,19 +6864,19 @@
         <v>65</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -6867,17 +6885,17 @@
       <c r="J105" s="8"/>
       <c r="K105" s="1"/>
       <c r="L105" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
       <c r="Q105" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105" s="1">
         <f t="shared" si="18"/>
@@ -6894,29 +6912,29 @@
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="H106" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="8"/>
-      <c r="K106" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="K106" s="1"/>
       <c r="L106" s="7" t="s">
         <v>186</v>
       </c>
@@ -6945,27 +6963,31 @@
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G107" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H107" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="8"/>
-      <c r="K107" s="1"/>
+      <c r="K107" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="L107" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
@@ -6975,7 +6997,7 @@
       </c>
       <c r="R107" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107" s="1">
         <f t="shared" si="18"/>
@@ -6983,7 +7005,7 @@
       </c>
       <c r="T107" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6995,18 +7017,18 @@
         <v>86</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8"/>
@@ -7042,18 +7064,18 @@
         <v>86</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8"/>
@@ -7143,7 +7165,7 @@
         <v>34</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
@@ -7183,14 +7205,14 @@
         <v>86</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
@@ -7230,18 +7252,18 @@
         <v>86</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8"/>
@@ -7277,18 +7299,18 @@
         <v>86</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="8"/>
@@ -7320,27 +7342,27 @@
         <f t="shared" si="15"/>
         <v>112</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G115" s="17"/>
-      <c r="H115" s="19">
-        <v>5</v>
-      </c>
-      <c r="I115" s="19"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="19" t="s">
+      <c r="C115" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <v>16</v>
+      </c>
+      <c r="I115" s="7"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="7" t="s">
         <v>183</v>
       </c>
       <c r="N115" s="14"/>
@@ -7363,31 +7385,31 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
+      <c r="A116" s="7">
         <f t="shared" si="15"/>
         <v>113</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7">
-        <v>18</v>
-      </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="7" t="s">
+      <c r="C116" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="19">
+        <v>5</v>
+      </c>
+      <c r="I116" s="19"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="19" t="s">
         <v>183</v>
       </c>
       <c r="N116" s="14"/>
@@ -7410,7 +7432,7 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="15">
         <f t="shared" si="15"/>
         <v>114</v>
       </c>
@@ -7418,7 +7440,7 @@
         <v>86</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="1" t="s">
@@ -7429,7 +7451,7 @@
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8"/>
@@ -7465,18 +7487,18 @@
         <v>86</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="8"/>
@@ -7519,7 +7541,7 @@
         <v>34</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
@@ -7559,7 +7581,7 @@
         <v>86</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="1" t="s">
@@ -7603,10 +7625,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="1" t="s">
@@ -7617,7 +7639,7 @@
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8"/>
@@ -7650,39 +7672,33 @@
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I122" s="7"/>
-      <c r="J122" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="J122" s="8"/>
       <c r="K122" s="1"/>
       <c r="L122" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
       <c r="Q122" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" s="1">
         <f t="shared" si="17"/>
@@ -7694,23 +7710,63 @@
       </c>
       <c r="T122" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
+      <c r="A123" s="7">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" s="7">
+        <v>1</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K123" s="1"/>
+      <c r="L123" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="Q123" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R123" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" s="9">
-        <f>Q128</f>
-        <v>37</v>
-      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -7718,11 +7774,11 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C125" s="9">
-        <f>S128</f>
-        <v>13</v>
+        <f>Q129</f>
+        <v>37</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -7731,11 +7787,11 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C126" s="9">
-        <f>R128</f>
-        <v>50</v>
+        <f>S129</f>
+        <v>13</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -7744,11 +7800,11 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="12">
-        <f>T128</f>
-        <v>19</v>
+        <v>186</v>
+      </c>
+      <c r="C127" s="9">
+        <f>R129</f>
+        <v>51</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -7757,34 +7813,47 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="12">
+        <f>T129</f>
+        <v>19</v>
+      </c>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="9">
-        <f>SUM(C124:C127)</f>
-        <v>119</v>
-      </c>
-      <c r="Q128" s="1">
-        <f>SUM(Q4:Q127)</f>
+      <c r="C129" s="9">
+        <f>SUM(C125:C128)</f>
+        <v>120</v>
+      </c>
+      <c r="Q129" s="1">
+        <f>SUM(Q4:Q128)</f>
         <v>37</v>
       </c>
-      <c r="R128" s="1">
-        <f>SUM(R4:R127)</f>
-        <v>50</v>
-      </c>
-      <c r="S128" s="1">
-        <f>SUM(S4:S127)</f>
+      <c r="R129" s="1">
+        <f>SUM(R4:R128)</f>
+        <v>51</v>
+      </c>
+      <c r="S129" s="1">
+        <f>SUM(S4:S128)</f>
         <v>13</v>
       </c>
-      <c r="T128" s="1">
-        <f>SUM(T4:T127)</f>
+      <c r="T129" s="1">
+        <f>SUM(T4:T128)</f>
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:T122">
-    <sortCondition ref="B4:B122"/>
-    <sortCondition ref="C4:C122"/>
-    <sortCondition ref="D4:D122"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:T123">
+    <sortCondition ref="B4:B123"/>
+    <sortCondition ref="C4:C123"/>
+    <sortCondition ref="D4:D123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
